--- a/Raw_data_cleaned/Burley/Burley21-2.xlsx
+++ b/Raw_data_cleaned/Burley/Burley21-2.xlsx
@@ -1,34 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tobacco\Raw_data_cleaned\Burley\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C315B8A-9A38-4C9A-9122-2FF6695894E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{70F48B70-9F4C-49D5-83C1-7B70CD070D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4970" yWindow="6710" windowWidth="28740" windowHeight="15370" xr2:uid="{C635D291-D2F2-4AEE-9E93-BFE1BD30F625}"/>
+    <workbookView xWindow="8360" yWindow="2250" windowWidth="28740" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -47,15 +37,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="222"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,18 +69,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{01B03BF0-4897-4FB2-804D-FE6917B7D204}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -130,7 +110,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -142,7 +122,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -189,23 +169,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -241,23 +204,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -409,11 +355,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56581135-BFA2-4C13-BE03-D6443D913B69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BE404"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="A1:BE404"/>
+      <selection sqref="A1:BE404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/Raw_data_cleaned/Burley/Burley21-2.xlsx
+++ b/Raw_data_cleaned/Burley/Burley21-2.xlsx
@@ -1,34 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10507"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tobacco\Raw_data_cleaned\Burley\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vitvaraaravithya/Documents/tobacco_project_review/Raw_data_cleaned/Burley/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C315B8A-9A38-4C9A-9122-2FF6695894E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E80EEB2-8AAC-2E48-8118-8D5B919F3B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4970" yWindow="6710" windowWidth="28740" windowHeight="15370" xr2:uid="{C635D291-D2F2-4AEE-9E93-BFE1BD30F625}"/>
+    <workbookView xWindow="4120" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -47,19 +37,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="222"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -87,18 +69,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{01B03BF0-4897-4FB2-804D-FE6917B7D204}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -130,7 +110,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -142,7 +122,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -189,23 +169,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -241,23 +204,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -409,16 +355,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56581135-BFA2-4C13-BE03-D6443D913B69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B9AF02-60A8-FC45-8851-57BAEFFEA3ED}">
   <dimension ref="A1:BE404"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="A1:BE404"/>
+    <sheetView tabSelected="1" zoomScale="32" workbookViewId="0">
+      <selection activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -591,7 +537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>6.3000000000000003E-4</v>
       </c>
@@ -764,7 +710,7 @@
         <v>285.12124903741795</v>
       </c>
     </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1.2600000000000001E-3</v>
       </c>
@@ -937,7 +883,7 @@
         <v>279.26216962135476</v>
       </c>
     </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1.89E-3</v>
       </c>
@@ -1110,7 +1056,7 @@
         <v>274.24615988144967</v>
       </c>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2.5200000000000001E-3</v>
       </c>
@@ -1283,7 +1229,7 @@
         <v>269.75040968455119</v>
       </c>
     </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>3.1510000000000002E-3</v>
       </c>
@@ -1456,7 +1402,7 @@
         <v>265.62362037660381</v>
       </c>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>4.411E-3</v>
       </c>
@@ -1629,7 +1575,7 @@
         <v>258.20736901020774</v>
       </c>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>5.0410000000000003E-3</v>
       </c>
@@ -1802,7 +1748,7 @@
         <v>254.82008273953039</v>
       </c>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8.1919999999999996E-3</v>
       </c>
@@ -1975,7 +1921,7 @@
         <v>240.11613256148308</v>
       </c>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8.822E-3</v>
       </c>
@@ -2148,7 +2094,7 @@
         <v>237.5224420175968</v>
       </c>
     </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9.4520000000000003E-3</v>
       </c>
@@ -2321,7 +2267,7 @@
         <v>235.02100516503219</v>
       </c>
     </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1.0711999999999999E-2</v>
       </c>
@@ -2494,7 +2440,7 @@
         <v>230.26739868139228</v>
       </c>
     </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>1.1342E-2</v>
       </c>
@@ -2667,7 +2613,7 @@
         <v>228.0035884536907</v>
       </c>
     </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>1.1972E-2</v>
       </c>
@@ -2840,7 +2786,7 @@
         <v>225.80846284303118</v>
       </c>
     </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>1.5122999999999999E-2</v>
       </c>
@@ -3013,7 +2959,7 @@
         <v>215.72356168660829</v>
       </c>
     </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>2.4575E-2</v>
       </c>
@@ -3186,7 +3132,7 @@
         <v>191.82258116147747</v>
       </c>
     </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>2.5205000000000002E-2</v>
       </c>
@@ -3359,7 +3305,7 @@
         <v>190.4773710608479</v>
       </c>
     </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2.9616E-2</v>
       </c>
@@ -3532,7 +3478,7 @@
         <v>181.70770726555111</v>
       </c>
     </row>
-    <row r="19" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>3.2766000000000003E-2</v>
       </c>
@@ -3705,7 +3651,7 @@
         <v>176.0512201280448</v>
       </c>
     </row>
-    <row r="20" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>3.4026000000000001E-2</v>
       </c>
@@ -3878,7 +3824,7 @@
         <v>173.9113490381803</v>
       </c>
     </row>
-    <row r="21" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>3.5286999999999999E-2</v>
       </c>
@@ -4051,7 +3997,7 @@
         <v>171.83426743115317</v>
       </c>
     </row>
-    <row r="22" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>3.9066999999999998E-2</v>
       </c>
@@ -4224,7 +4170,7 @@
         <v>165.96188308573818</v>
       </c>
     </row>
-    <row r="23" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>4.2217999999999999E-2</v>
       </c>
@@ -4397,7 +4343,7 @@
         <v>161.43026512366751</v>
       </c>
     </row>
-    <row r="24" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>4.5369E-2</v>
       </c>
@@ -4570,7 +4516,7 @@
         <v>157.18936348096094</v>
       </c>
     </row>
-    <row r="25" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>4.6628999999999997E-2</v>
       </c>
@@ -4743,7 +4689,7 @@
         <v>155.56777347866995</v>
       </c>
     </row>
-    <row r="26" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>4.8519E-2</v>
       </c>
@@ -4916,7 +4862,7 @@
         <v>153.20928968919009</v>
       </c>
     </row>
-    <row r="27" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>4.9148999999999998E-2</v>
       </c>
@@ -5089,7 +5035,7 @@
         <v>152.44201353537653</v>
       </c>
     </row>
-    <row r="28" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>5.1670000000000001E-2</v>
       </c>
@@ -5262,7 +5208,7 @@
         <v>149.46110742157884</v>
       </c>
     </row>
-    <row r="29" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>5.9860999999999998E-2</v>
       </c>
@@ -5435,7 +5381,7 @@
         <v>140.65505787860084</v>
       </c>
     </row>
-    <row r="30" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>6.3642000000000004E-2</v>
       </c>
@@ -5608,7 +5554,7 @@
         <v>136.98318237316278</v>
       </c>
     </row>
-    <row r="31" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>6.4902000000000001E-2</v>
       </c>
@@ -5781,7 +5727,7 @@
         <v>135.80814213926226</v>
       </c>
     </row>
-    <row r="32" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>6.5532000000000007E-2</v>
       </c>
@@ -5954,7 +5900,7 @@
         <v>135.22927563344936</v>
       </c>
     </row>
-    <row r="33" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>6.8682999999999994E-2</v>
       </c>
@@ -6127,7 +6073,7 @@
         <v>132.41688649220711</v>
       </c>
     </row>
-    <row r="34" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>7.1204000000000003E-2</v>
       </c>
@@ -6300,7 +6246,7 @@
         <v>130.26104058344333</v>
       </c>
     </row>
-    <row r="35" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>7.3723999999999998E-2</v>
       </c>
@@ -6473,7 +6419,7 @@
         <v>128.18422696749431</v>
       </c>
     </row>
-    <row r="36" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>7.4354000000000003E-2</v>
       </c>
@@ -6646,7 +6592,7 @@
         <v>127.67668208957436</v>
       </c>
     </row>
-    <row r="37" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>7.5614000000000001E-2</v>
       </c>
@@ -6819,7 +6765,7 @@
         <v>126.67509593627098</v>
       </c>
     </row>
-    <row r="38" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>8.5066000000000003E-2</v>
       </c>
@@ -6992,7 +6938,7 @@
         <v>119.68830630895751</v>
       </c>
     </row>
-    <row r="39" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>8.6957000000000007E-2</v>
       </c>
@@ -7165,7 +7111,7 @@
         <v>118.39205082518056</v>
       </c>
     </row>
-    <row r="40" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>9.0736999999999998E-2</v>
       </c>
@@ -7338,7 +7284,7 @@
         <v>115.89181968773978</v>
       </c>
     </row>
-    <row r="41" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>9.5147999999999996E-2</v>
       </c>
@@ -7511,7 +7457,7 @@
         <v>113.11721395580601</v>
       </c>
     </row>
-    <row r="42" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>9.6407999999999994E-2</v>
       </c>
@@ -7684,7 +7630,7 @@
         <v>112.35118174006151</v>
       </c>
     </row>
-    <row r="43" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>9.8929000000000003E-2</v>
       </c>
@@ -7857,7 +7803,7 @@
         <v>110.85204879703018</v>
       </c>
     </row>
-    <row r="44" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>0.101449</v>
       </c>
@@ -8030,7 +7976,7 @@
         <v>109.39644423829971</v>
       </c>
     </row>
-    <row r="45" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>0.10586</v>
       </c>
@@ -8203,7 +8149,7 @@
         <v>106.94595536585084</v>
       </c>
     </row>
-    <row r="46" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>0.10838100000000001</v>
       </c>
@@ -8376,7 +8322,7 @@
         <v>105.59797787904994</v>
       </c>
     </row>
-    <row r="47" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>0.11468200000000001</v>
       </c>
@@ -8549,7 +8495,7 @@
         <v>102.3833391025574</v>
       </c>
     </row>
-    <row r="48" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>0.115942</v>
       </c>
@@ -8722,7 +8668,7 @@
         <v>101.76548802171226</v>
       </c>
     </row>
-    <row r="49" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>0.121613</v>
       </c>
@@ -8895,7 +8841,7 @@
         <v>99.080298253039317</v>
       </c>
     </row>
-    <row r="50" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>0.123503</v>
       </c>
@@ -9068,7 +9014,7 @@
         <v>98.218519220918992</v>
       </c>
     </row>
-    <row r="51" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>0.126024</v>
       </c>
@@ -9241,7 +9187,7 @@
         <v>97.093434202692109</v>
       </c>
     </row>
-    <row r="52" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>0.129805</v>
       </c>
@@ -9414,7 +9360,7 @@
         <v>95.456131753973764</v>
       </c>
     </row>
-    <row r="53" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>0.13358500000000001</v>
       </c>
@@ -9587,7 +9533,7 @@
         <v>93.876313079759626</v>
       </c>
     </row>
-    <row r="54" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>0.13484599999999999</v>
       </c>
@@ -9760,7 +9706,7 @@
         <v>93.361420550602304</v>
       </c>
     </row>
-    <row r="55" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>0.13799600000000001</v>
       </c>
@@ -9933,7 +9879,7 @@
         <v>92.100666623013652</v>
       </c>
     </row>
-    <row r="56" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>0.138626</v>
       </c>
@@ -10106,7 +10052,7 @@
         <v>91.852771973847354</v>
       </c>
     </row>
-    <row r="57" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>0.14240700000000001</v>
       </c>
@@ -10279,7 +10225,7 @@
         <v>90.393745316838007</v>
       </c>
     </row>
-    <row r="58" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>0.143037</v>
       </c>
@@ -10452,7 +10398,7 @@
         <v>90.155312061136073</v>
       </c>
     </row>
-    <row r="59" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>0.14366699999999999</v>
       </c>
@@ -10625,7 +10571,7 @@
         <v>89.918182065561055</v>
       </c>
     </row>
-    <row r="60" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>0.147448</v>
       </c>
@@ -10798,7 +10744,7 @@
         <v>88.521769476469558</v>
       </c>
     </row>
-    <row r="61" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>0.15059900000000001</v>
       </c>
@@ -10971,7 +10917,7 @@
         <v>87.391851812997572</v>
       </c>
     </row>
-    <row r="62" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>0.161941</v>
       </c>
@@ -11144,7 +11090,7 @@
         <v>83.559211271130124</v>
       </c>
     </row>
-    <row r="63" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>0.163831</v>
       </c>
@@ -11317,7 +11263,7 @@
         <v>82.953738968688896</v>
       </c>
     </row>
-    <row r="64" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>0.166352</v>
       </c>
@@ -11490,7 +11436,7 @@
         <v>82.159905020714106</v>
       </c>
     </row>
-    <row r="65" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>0.16698199999999999</v>
       </c>
@@ -11663,7 +11609,7 @@
         <v>81.963934036605124</v>
       </c>
     </row>
-    <row r="66" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>0.16761200000000001</v>
       </c>
@@ -11836,7 +11782,7 @@
         <v>81.768911140889116</v>
       </c>
     </row>
-    <row r="67" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>0.17013200000000001</v>
       </c>
@@ -12009,7 +11955,7 @@
         <v>80.998153396427313</v>
       </c>
     </row>
-    <row r="68" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>0.17391300000000001</v>
       </c>
@@ -12182,7 +12128,7 @@
         <v>79.86894093836527</v>
       </c>
     </row>
-    <row r="69" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>0.174543</v>
       </c>
@@ -12355,7 +12301,7 @@
         <v>79.68387638369029</v>
       </c>
     </row>
-    <row r="70" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>0.191556</v>
       </c>
@@ -12528,7 +12474,7 @@
         <v>74.993002277212298</v>
       </c>
     </row>
-    <row r="71" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>0.19533700000000001</v>
       </c>
@@ -12701,7 +12647,7 @@
         <v>74.024510719760016</v>
       </c>
     </row>
-    <row r="72" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>0.19659699999999999</v>
       </c>
@@ -12874,7 +12820,7 @@
         <v>73.707264223371141</v>
       </c>
     </row>
-    <row r="73" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>0.19722700000000001</v>
       </c>
@@ -13047,7 +12993,7 @@
         <v>73.549650576587894</v>
       </c>
     </row>
-    <row r="74" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>0.19785800000000001</v>
       </c>
@@ -13220,7 +13166,7 @@
         <v>73.392455275538239</v>
       </c>
     </row>
-    <row r="75" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>0.20604900000000001</v>
       </c>
@@ -13393,7 +13339,7 @@
         <v>71.410607919873726</v>
       </c>
     </row>
-    <row r="76" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>0.20730899999999999</v>
       </c>
@@ -13566,7 +13512,7 @@
         <v>71.1150797467199</v>
       </c>
     </row>
-    <row r="77" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>0.2092</v>
       </c>
@@ -13739,7 +13685,7 @@
         <v>70.676040570515909</v>
       </c>
     </row>
-    <row r="78" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>0.215501</v>
       </c>
@@ -13912,7 +13858,7 @@
         <v>69.250755292248755</v>
       </c>
     </row>
-    <row r="79" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>0.217391</v>
       </c>
@@ -14085,7 +14031,7 @@
         <v>68.834144892911354</v>
       </c>
     </row>
-    <row r="80" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>0.223693</v>
       </c>
@@ -14258,7 +14204,7 @@
         <v>67.479653824687077</v>
       </c>
     </row>
-    <row r="81" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>0.22495299999999999</v>
       </c>
@@ -14431,7 +14377,7 @@
         <v>67.21504052703574</v>
       </c>
     </row>
-    <row r="82" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>0.22747300000000001</v>
       </c>
@@ -14604,7 +14550,7 @@
         <v>66.691810319133751</v>
       </c>
     </row>
-    <row r="83" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>0.22873299999999999</v>
       </c>
@@ -14777,7 +14723,7 @@
         <v>66.433145087686114</v>
       </c>
     </row>
-    <row r="84" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>0.230624</v>
       </c>
@@ -14950,7 +14896,7 @@
         <v>66.048565951482772</v>
       </c>
     </row>
-    <row r="85" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>0.23314399999999999</v>
       </c>
@@ -15123,7 +15069,7 @@
         <v>65.542704888134764</v>
       </c>
     </row>
-    <row r="86" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>0.24007600000000001</v>
       </c>
@@ -15296,7 +15242,7 @@
         <v>64.18895930752096</v>
       </c>
     </row>
-    <row r="87" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>0.240706</v>
       </c>
@@ -15469,7 +15415,7 @@
         <v>64.068588716308497</v>
       </c>
     </row>
-    <row r="88" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>0.24196599999999999</v>
       </c>
@@ -15642,7 +15588,7 @@
         <v>63.829142242001275</v>
       </c>
     </row>
-    <row r="89" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>0.24574699999999999</v>
       </c>
@@ -15815,7 +15761,7 @@
         <v>63.120798416851038</v>
       </c>
     </row>
-    <row r="90" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>0.24637700000000001</v>
       </c>
@@ -15988,7 +15934,7 @@
         <v>63.004232116820468</v>
       </c>
     </row>
-    <row r="91" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>0.247637</v>
       </c>
@@ -16161,7 +16107,7 @@
         <v>62.772329281369473</v>
       </c>
     </row>
-    <row r="92" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>0.24826699999999999</v>
       </c>
@@ -16334,7 +16280,7 @@
         <v>62.65698812939474</v>
       </c>
     </row>
-    <row r="93" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>0.24889700000000001</v>
       </c>
@@ -16507,7 +16453,7 @@
         <v>62.54205077352163</v>
       </c>
     </row>
-    <row r="94" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>0.25078800000000001</v>
       </c>
@@ -16680,7 +16626,7 @@
         <v>62.199458709801014</v>
       </c>
     </row>
-    <row r="95" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>0.25267800000000001</v>
       </c>
@@ -16853,7 +16799,7 @@
         <v>61.860602454654291</v>
       </c>
     </row>
-    <row r="96" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>0.25330799999999998</v>
       </c>
@@ -17026,7 +16972,7 @@
         <v>61.748429876589533</v>
       </c>
     </row>
-    <row r="97" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>0.25519799999999998</v>
       </c>
@@ -17199,7 +17145,7 @@
         <v>61.414220642407436</v>
       </c>
     </row>
-    <row r="98" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>0.25645899999999999</v>
       </c>
@@ -17372,7 +17318,7 @@
         <v>61.193142437864743</v>
       </c>
     </row>
-    <row r="99" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>0.258349</v>
       </c>
@@ -17545,7 +17491,7 @@
         <v>60.864601557800988</v>
       </c>
     </row>
-    <row r="100" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>0.25897900000000001</v>
       </c>
@@ -17718,7 +17664,7 @@
         <v>60.755829796113652</v>
       </c>
     </row>
-    <row r="101" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>0.26150000000000001</v>
       </c>
@@ -17891,7 +17837,7 @@
         <v>60.324228720821004</v>
       </c>
     </row>
-    <row r="102" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>0.26275999999999999</v>
       </c>
@@ -18064,7 +18010,7 @@
         <v>60.110680496022546</v>
       </c>
     </row>
-    <row r="103" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>0.26401999999999998</v>
       </c>
@@ -18237,7 +18183,7 @@
         <v>59.898555783888433</v>
       </c>
     </row>
-    <row r="104" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>0.26465</v>
       </c>
@@ -18410,7 +18356,7 @@
         <v>59.793022502787899</v>
       </c>
     </row>
-    <row r="105" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>0.26528000000000002</v>
       </c>
@@ -18583,7 +18529,7 @@
         <v>59.687839437065058</v>
       </c>
     </row>
-    <row r="106" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>0.26591100000000001</v>
       </c>
@@ -18756,7 +18702,7 @@
         <v>59.582838599640276</v>
       </c>
     </row>
-    <row r="107" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>0.26654099999999997</v>
       </c>
@@ -18929,7 +18875,7 @@
         <v>59.478350950732043</v>
       </c>
     </row>
-    <row r="108" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>0.26780100000000001</v>
       </c>
@@ -19102,7 +19048,7 @@
         <v>59.2704078661178</v>
       </c>
     </row>
-    <row r="109" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>0.26906099999999999</v>
       </c>
@@ -19275,7 +19221,7 @@
         <v>59.063829010804049</v>
       </c>
     </row>
-    <row r="110" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>0.26969100000000001</v>
       </c>
@@ -19448,7 +19394,7 @@
         <v>58.961046697765248</v>
       </c>
     </row>
-    <row r="111" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>0.27347199999999999</v>
       </c>
@@ -19621,7 +19567,7 @@
         <v>58.351182238989928</v>
       </c>
     </row>
-    <row r="112" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>0.27473199999999998</v>
       </c>
@@ -19794,7 +19740,7 @@
         <v>58.150569640924708</v>
       </c>
     </row>
-    <row r="113" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>0.275362</v>
       </c>
@@ -19967,7 +19913,7 @@
         <v>58.050747232061589</v>
       </c>
     </row>
-    <row r="114" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>0.27662300000000001</v>
       </c>
@@ -20140,7 +20086,7 @@
         <v>57.851904737811346</v>
       </c>
     </row>
-    <row r="115" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>0.27788299999999999</v>
       </c>
@@ -20313,7 +20259,7 @@
         <v>57.654488868577893</v>
       </c>
     </row>
-    <row r="116" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>0.27914299999999997</v>
       </c>
@@ -20486,7 +20432,7 @@
         <v>57.458328515609004</v>
       </c>
     </row>
-    <row r="117" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>0.28103299999999998</v>
       </c>
@@ -20659,7 +20605,7 @@
         <v>57.166414271667342</v>
       </c>
     </row>
-    <row r="118" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>0.28166400000000003</v>
       </c>
@@ -20832,7 +20778,7 @@
         <v>57.069570364527571</v>
       </c>
     </row>
-    <row r="119" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>0.28229399999999999</v>
       </c>
@@ -21005,7 +20951,7 @@
         <v>56.973184632680706</v>
       </c>
     </row>
-    <row r="120" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>0.28418399999999999</v>
       </c>
@@ -21178,7 +21124,7 @@
         <v>56.685838911296734</v>
       </c>
     </row>
-    <row r="121" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>0.28481400000000001</v>
       </c>
@@ -21351,7 +21297,7 @@
         <v>56.590655794479567</v>
       </c>
     </row>
-    <row r="122" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>0.28544399999999998</v>
       </c>
@@ -21524,7 +21470,7 @@
         <v>56.495769581695463</v>
       </c>
     </row>
-    <row r="123" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>0.28607399999999999</v>
       </c>
@@ -21697,7 +21643,7 @@
         <v>56.40117879372638</v>
       </c>
     </row>
-    <row r="124" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>0.28670400000000001</v>
       </c>
@@ -21870,7 +21816,7 @@
         <v>56.306881961530614</v>
       </c>
     </row>
-    <row r="125" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>0.28796500000000003</v>
       </c>
@@ -22043,7 +21989,7 @@
         <v>56.119015817980333</v>
       </c>
     </row>
-    <row r="126" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>0.28985499999999997</v>
       </c>
@@ -22216,7 +22162,7 @@
         <v>55.839609270083265</v>
       </c>
     </row>
-    <row r="127" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>0.29048499999999999</v>
       </c>
@@ -22389,7 +22335,7 @@
         <v>55.747046333185359</v>
       </c>
     </row>
-    <row r="128" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>0.29111500000000001</v>
       </c>
@@ -22562,7 +22508,7 @@
         <v>55.654767344088519</v>
       </c>
     </row>
-    <row r="129" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>0.29300599999999999</v>
       </c>
@@ -22735,7 +22681,7 @@
         <v>55.379475288989447</v>
       </c>
     </row>
-    <row r="130" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>0.29363600000000001</v>
       </c>
@@ -22908,7 +22854,7 @@
         <v>55.288318718011901</v>
       </c>
     </row>
-    <row r="131" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>0.29426600000000003</v>
       </c>
@@ -23081,7 +23027,7 @@
         <v>55.197439232118747</v>
       </c>
     </row>
-    <row r="132" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>0.29552600000000001</v>
       </c>
@@ -23254,7 +23200,7 @@
         <v>55.016506146461673</v>
       </c>
     </row>
-    <row r="133" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>0.29615599999999997</v>
       </c>
@@ -23427,7 +23373,7 @@
         <v>54.926449884572328</v>
       </c>
     </row>
-    <row r="134" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>0.29678599999999999</v>
       </c>
@@ -23600,7 +23546,7 @@
         <v>54.836665383363076</v>
       </c>
     </row>
-    <row r="135" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>0.29741699999999999</v>
       </c>
@@ -23773,7 +23719,7 @@
         <v>54.747009462365092</v>
       </c>
     </row>
-    <row r="136" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>0.29867700000000003</v>
       </c>
@@ -23946,7 +23892,7 @@
         <v>54.568788376398224</v>
       </c>
     </row>
-    <row r="137" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>0.29930699999999999</v>
       </c>
@@ -24119,7 +24065,7 @@
         <v>54.480078336978458</v>
       </c>
     </row>
-    <row r="138" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>0.29993700000000001</v>
       </c>
@@ -24292,7 +24238,7 @@
         <v>54.391633597652877</v>
       </c>
     </row>
-    <row r="139" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>0.30056699999999997</v>
       </c>
@@ -24465,7 +24411,7 @@
         <v>54.303452892241062</v>
       </c>
     </row>
-    <row r="140" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>0.30119699999999999</v>
       </c>
@@ -24638,7 +24584,7 @@
         <v>54.215534962901806</v>
       </c>
     </row>
-    <row r="141" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>0.30182700000000001</v>
       </c>
@@ -24811,7 +24757,7 @@
         <v>54.127878560063031</v>
       </c>
     </row>
-    <row r="142" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>0.30371799999999999</v>
       </c>
@@ -24984,7 +24930,7 @@
         <v>53.86632843815773</v>
       </c>
     </row>
-    <row r="143" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>0.30497800000000003</v>
       </c>
@@ -25157,7 +25103,7 @@
         <v>53.693339390028576</v>
       </c>
     </row>
-    <row r="144" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>0.30560799999999999</v>
       </c>
@@ -25330,7 +25276,7 @@
         <v>53.607226762114998</v>
       </c>
     </row>
-    <row r="145" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>0.30623800000000001</v>
       </c>
@@ -25503,7 +25449,7 @@
         <v>53.521367137591774</v>
       </c>
     </row>
-    <row r="146" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>0.30812899999999999</v>
       </c>
@@ -25676,7 +25622,7 @@
         <v>53.265159570233642</v>
       </c>
     </row>
-    <row r="147" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>0.30875900000000001</v>
       </c>
@@ -25849,7 +25795,7 @@
         <v>53.180300570343228</v>
       </c>
     </row>
-    <row r="148" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>0.31001899999999999</v>
       </c>
@@ -26022,7 +25968,7 @@
         <v>53.011322867513464</v>
       </c>
     </row>
-    <row r="149" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>0.31127899999999997</v>
       </c>
@@ -26195,7 +26141,7 @@
         <v>52.843324609842774</v>
       </c>
     </row>
-    <row r="150" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>0.31190899999999999</v>
       </c>
@@ -26368,7 +26314,7 @@
         <v>52.759689943766581</v>
       </c>
     </row>
-    <row r="151" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>0.31506000000000001</v>
       </c>
@@ -26541,7 +26487,7 @@
         <v>52.344986024307794</v>
       </c>
     </row>
-    <row r="152" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>0.31695000000000001</v>
       </c>
@@ -26714,7 +26660,7 @@
         <v>52.099083850277701</v>
       </c>
     </row>
-    <row r="153" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>0.319471</v>
       </c>
@@ -26887,7 +26833,7 @@
         <v>51.774340238150266</v>
       </c>
     </row>
-    <row r="154" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>0.32136100000000001</v>
       </c>
@@ -27060,7 +27006,7 @@
         <v>51.533283552455877</v>
       </c>
     </row>
-    <row r="155" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>0.32514199999999999</v>
       </c>
@@ -27233,7 +27179,7 @@
         <v>51.05710715632096</v>
       </c>
     </row>
-    <row r="156" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>0.32577200000000001</v>
       </c>
@@ -27406,7 +27352,7 @@
         <v>50.978539722792796</v>
       </c>
     </row>
-    <row r="157" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>0.32829199999999997</v>
       </c>
@@ -27579,7 +27525,7 @@
         <v>50.666445934338562</v>
       </c>
     </row>
-    <row r="158" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>0.33144299999999999</v>
       </c>
@@ -27752,7 +27698,7 @@
         <v>50.281031528613148</v>
       </c>
     </row>
-    <row r="159" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>0.33522400000000002</v>
       </c>
@@ -27925,7 +27871,7 @@
         <v>49.825484451336997</v>
       </c>
     </row>
-    <row r="160" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>0.33774399999999999</v>
       </c>
@@ -28098,7 +28044,7 @@
         <v>49.525971951423905</v>
       </c>
     </row>
-    <row r="161" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>0.33900400000000003</v>
       </c>
@@ -28271,7 +28217,7 @@
         <v>49.377425899018625</v>
       </c>
     </row>
-    <row r="162" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>0.33963500000000002</v>
       </c>
@@ -28444,7 +28390,7 @@
         <v>49.303335133696116</v>
       </c>
     </row>
-    <row r="163" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>0.34026499999999998</v>
       </c>
@@ -28617,7 +28563,7 @@
         <v>49.229560483788866</v>
       </c>
     </row>
-    <row r="164" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>0.351607</v>
       </c>
@@ -28790,7 +28736,7 @@
         <v>47.934400156178839</v>
       </c>
     </row>
-    <row r="165" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>0.35853800000000002</v>
       </c>
@@ -28963,7 +28909,7 @@
         <v>47.172471443349217</v>
       </c>
     </row>
-    <row r="166" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>0.36357899999999999</v>
       </c>
@@ -29136,7 +29082,7 @@
         <v>46.631681324745138</v>
       </c>
     </row>
-    <row r="167" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>0.36673</v>
       </c>
@@ -29309,7 +29255,7 @@
         <v>46.299182058456154</v>
       </c>
     </row>
-    <row r="168" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>0.36987999999999999</v>
       </c>
@@ -29482,7 +29428,7 @@
         <v>45.970942413316109</v>
       </c>
     </row>
-    <row r="169" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>0.37870199999999998</v>
       </c>
@@ -29655,7 +29601,7 @@
         <v>45.073077410397403</v>
       </c>
     </row>
-    <row r="170" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>0.379332</v>
       </c>
@@ -29828,7 +29774,7 @@
         <v>45.010134738487118</v>
       </c>
     </row>
-    <row r="171" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>0.38059199999999999</v>
       </c>
@@ -30001,7 +29947,7 @@
         <v>44.884709351017477</v>
       </c>
     </row>
-    <row r="172" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>0.383743</v>
       </c>
@@ -30174,7 +30120,7 @@
         <v>44.573703292878562</v>
       </c>
     </row>
-    <row r="173" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>0.38437300000000002</v>
       </c>
@@ -30347,7 +30293,7 @@
         <v>44.511972500899347</v>
       </c>
     </row>
-    <row r="174" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>0.385633</v>
       </c>
@@ -30520,7 +30466,7 @@
         <v>44.388956869125195</v>
       </c>
     </row>
-    <row r="175" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>0.38689400000000002</v>
       </c>
@@ -30693,7 +30639,7 @@
         <v>44.266435122399692</v>
       </c>
     </row>
-    <row r="176" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>0.38878400000000002</v>
       </c>
@@ -30866,7 +30812,7 @@
         <v>44.083896525433374</v>
       </c>
     </row>
-    <row r="177" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>0.38941399999999998</v>
       </c>
@@ -31039,7 +30985,7 @@
         <v>44.023340881646973</v>
       </c>
     </row>
-    <row r="178" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>0.390044</v>
       </c>
@@ -31212,7 +31158,7 @@
         <v>43.96292959653001</v>
       </c>
     </row>
-    <row r="179" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>0.39130399999999999</v>
       </c>
@@ -31385,7 +31331,7 @@
         <v>43.842537916996839</v>
       </c>
     </row>
-    <row r="180" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>0.391934</v>
       </c>
@@ -31558,7 +31504,7 @@
         <v>43.782556437039155</v>
       </c>
     </row>
-    <row r="181" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>0.392565</v>
       </c>
@@ -31731,7 +31677,7 @@
         <v>43.722622274368234</v>
       </c>
     </row>
-    <row r="182" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>0.39319500000000002</v>
       </c>
@@ -31904,7 +31850,7 @@
         <v>43.662924858184475</v>
       </c>
     </row>
-    <row r="183" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>0.39760600000000001</v>
       </c>
@@ -32077,7 +32023,7 @@
         <v>43.24887165037692</v>
       </c>
     </row>
-    <row r="184" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>0.40264699999999998</v>
       </c>
@@ -32250,7 +32196,7 @@
         <v>42.783923016534132</v>
       </c>
     </row>
-    <row r="185" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>0.403277</v>
       </c>
@@ -32423,7 +32369,7 @@
         <v>42.726421789499547</v>
       </c>
     </row>
-    <row r="186" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>0.41020800000000002</v>
       </c>
@@ -32596,7 +32542,7 @@
         <v>42.10248800445752</v>
       </c>
     </row>
-    <row r="187" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>0.41083799999999998</v>
       </c>
@@ -32769,7 +32715,7 @@
         <v>42.046550705610194</v>
       </c>
     </row>
-    <row r="188" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>0.41272799999999998</v>
       </c>
@@ -32942,7 +32888,7 @@
         <v>41.879500470962839</v>
       </c>
     </row>
-    <row r="189" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>0.41461900000000002</v>
       </c>
@@ -33115,7 +33061,7 @@
         <v>41.713495655174007</v>
       </c>
     </row>
-    <row r="190" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>0.41839900000000002</v>
       </c>
@@ -33288,7 +33234,7 @@
         <v>41.38501239369316</v>
       </c>
     </row>
-    <row r="191" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>0.42154999999999998</v>
       </c>
@@ -33461,7 +33407,7 @@
         <v>41.114546783382707</v>
       </c>
     </row>
-    <row r="192" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>0.42281000000000002</v>
       </c>
@@ -33634,7 +33580,7 @@
         <v>41.007236182676301</v>
       </c>
     </row>
-    <row r="193" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>0.42533100000000001</v>
       </c>
@@ -33807,7 +33753,7 @@
         <v>40.79395408369237</v>
       </c>
     </row>
-    <row r="194" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>0.426591</v>
       </c>
@@ -33980,7 +33926,7 @@
         <v>40.688060532571342</v>
       </c>
     </row>
-    <row r="195" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>0.42911199999999999</v>
       </c>
@@ -34153,7 +34099,7 @@
         <v>40.477583935740036</v>
       </c>
     </row>
-    <row r="196" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>0.431002</v>
       </c>
@@ -34326,7 +34272,7 @@
         <v>40.320996092599437</v>
       </c>
     </row>
-    <row r="197" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>0.43163200000000002</v>
       </c>
@@ -34499,7 +34445,7 @@
         <v>40.269027869006692</v>
       </c>
     </row>
-    <row r="198" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>0.43415199999999998</v>
       </c>
@@ -34672,7 +34618,7 @@
         <v>40.062283118142332</v>
       </c>
     </row>
-    <row r="199" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>0.44108399999999998</v>
       </c>
@@ -34845,7 +34791,7 @@
         <v>39.502713668895346</v>
       </c>
     </row>
-    <row r="200" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>0.443604</v>
       </c>
@@ -35018,7 +34964,7 @@
         <v>39.302544922168188</v>
       </c>
     </row>
-    <row r="201" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>0.44423400000000002</v>
       </c>
@@ -35191,7 +35137,7 @@
         <v>39.25276881987255</v>
       </c>
     </row>
-    <row r="202" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>0.44549499999999997</v>
       </c>
@@ -35364,7 +35310,7 @@
         <v>39.153454813835602</v>
       </c>
     </row>
-    <row r="203" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>0.44612499999999999</v>
       </c>
@@ -35537,7 +35483,7 @@
         <v>39.103994956614123</v>
       </c>
     </row>
-    <row r="204" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>0.44738499999999998</v>
       </c>
@@ -35710,7 +35656,7 @@
         <v>39.005388843147003</v>
       </c>
     </row>
-    <row r="205" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>0.44927499999999998</v>
       </c>
@@ -35883,7 +35829,7 @@
         <v>38.858258428963701</v>
       </c>
     </row>
-    <row r="206" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>0.449905</v>
       </c>
@@ -36056,7 +36002,7 @@
         <v>38.80942123805174</v>
       </c>
     </row>
-    <row r="207" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>0.45053599999999999</v>
       </c>
@@ -36229,7 +36175,7 @@
         <v>38.760609338585532</v>
       </c>
     </row>
-    <row r="208" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>0.45116600000000001</v>
       </c>
@@ -36402,7 +36348,7 @@
         <v>38.711977101157053</v>
       </c>
     </row>
-    <row r="209" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>0.45179599999999998</v>
       </c>
@@ -36575,7 +36521,7 @@
         <v>38.663446747813261</v>
       </c>
     </row>
-    <row r="210" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>0.45620699999999997</v>
       </c>
@@ -36748,7 +36694,7 @@
         <v>38.326482938219428</v>
       </c>
     </row>
-    <row r="211" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>0.46061800000000003</v>
       </c>
@@ -36921,7 +36867,7 @@
         <v>37.994383259864286</v>
       </c>
     </row>
-    <row r="212" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>0.46187800000000001</v>
       </c>
@@ -37094,7 +37040,7 @@
         <v>37.900396755501603</v>
       </c>
     </row>
-    <row r="213" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>0.46313799999999999</v>
       </c>
@@ -37267,7 +37213,7 @@
         <v>37.806795573135176</v>
       </c>
     </row>
-    <row r="214" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>0.46628900000000001</v>
       </c>
@@ -37440,7 +37386,7 @@
         <v>37.574388650401197</v>
       </c>
     </row>
-    <row r="215" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>0.46754899999999999</v>
       </c>
@@ -37613,7 +37559,7 @@
         <v>37.482116829341372</v>
       </c>
     </row>
-    <row r="216" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>0.47006900000000001</v>
       </c>
@@ -37786,7 +37732,7 @@
         <v>37.298693477594043</v>
       </c>
     </row>
-    <row r="217" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>0.47510999999999998</v>
       </c>
@@ -37959,7 +37905,7 @@
         <v>36.936190016122445</v>
       </c>
     </row>
-    <row r="218" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>0.47637099999999999</v>
       </c>
@@ -38132,7 +38078,7 @@
         <v>36.846417293819513</v>
       </c>
     </row>
-    <row r="219" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>0.47700100000000001</v>
       </c>
@@ -38305,7 +38251,7 @@
         <v>36.801700929483573</v>
       </c>
     </row>
-    <row r="220" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>0.47763100000000003</v>
       </c>
@@ -38478,7 +38424,7 @@
         <v>36.757073740224321</v>
       </c>
     </row>
-    <row r="221" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>0.47889100000000001</v>
       </c>
@@ -38651,7 +38597,7 @@
         <v>36.668085760215824</v>
       </c>
     </row>
-    <row r="222" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>0.48330200000000001</v>
       </c>
@@ -38824,7 +38770,7 @@
         <v>36.359326274661299</v>
       </c>
     </row>
-    <row r="223" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>0.48519200000000001</v>
       </c>
@@ -38997,7 +38943,7 @@
         <v>36.228332590226614</v>
       </c>
     </row>
-    <row r="224" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>0.48960300000000001</v>
       </c>
@@ -39170,7 +39116,7 @@
         <v>35.925596235133455</v>
       </c>
     </row>
-    <row r="225" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>0.49338399999999999</v>
       </c>
@@ -39343,7 +39289,7 @@
         <v>35.669369941206845</v>
       </c>
     </row>
-    <row r="226" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>0.49464399999999997</v>
       </c>
@@ -39516,7 +39462,7 @@
         <v>35.584644399715295</v>
       </c>
     </row>
-    <row r="227" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>0.49779499999999999</v>
       </c>
@@ -39689,7 +39635,7 @@
         <v>35.374189817700966</v>
       </c>
     </row>
-    <row r="228" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>0.49968499999999999</v>
       </c>
@@ -39862,7 +39808,7 @@
         <v>35.248925071586605</v>
       </c>
     </row>
-    <row r="229" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>0.50283599999999995</v>
       </c>
@@ -40035,7 +39981,7 @@
         <v>35.04167679113138</v>
       </c>
     </row>
-    <row r="230" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>0.50472600000000001</v>
       </c>
@@ -40208,7 +40154,7 @@
         <v>34.918311970325952</v>
       </c>
     </row>
-    <row r="231" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>0.50598600000000005</v>
       </c>
@@ -40381,7 +40327,7 @@
         <v>34.836458352323774</v>
       </c>
     </row>
-    <row r="232" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>0.50850700000000004</v>
       </c>
@@ -40554,7 +40500,7 @@
         <v>34.67361339874661</v>
       </c>
     </row>
-    <row r="233" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>0.50913699999999995</v>
       </c>
@@ -40727,7 +40673,7 @@
         <v>34.633110071746017</v>
       </c>
     </row>
-    <row r="234" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>0.51102700000000001</v>
       </c>
@@ -40900,7 +40846,7 @@
         <v>34.512056518701684</v>
       </c>
     </row>
-    <row r="235" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>0.51417800000000002</v>
       </c>
@@ -41073,7 +41019,7 @@
         <v>34.31174522341631</v>
       </c>
     </row>
-    <row r="236" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>0.51480800000000004</v>
       </c>
@@ -41246,7 +41192,7 @@
         <v>34.271919913859449</v>
       </c>
     </row>
-    <row r="237" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>0.51669799999999999</v>
       </c>
@@ -41419,7 +41365,7 @@
         <v>34.152888368876091</v>
       </c>
     </row>
-    <row r="238" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>0.51858899999999997</v>
       </c>
@@ -41592,7 +41538,7 @@
         <v>34.03445637134616</v>
       </c>
     </row>
-    <row r="239" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>0.51921899999999999</v>
       </c>
@@ -41765,7 +41711,7 @@
         <v>33.995146076495494</v>
       </c>
     </row>
-    <row r="240" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>0.51984900000000001</v>
       </c>
@@ -41938,7 +41884,7 @@
         <v>33.955908476062191</v>
       </c>
     </row>
-    <row r="241" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>0.52110900000000004</v>
       </c>
@@ -42111,7 +42057,7 @@
         <v>33.877650507454618</v>
       </c>
     </row>
-    <row r="242" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>0.52173899999999995</v>
       </c>
@@ -42284,7 +42230,7 @@
         <v>33.838629715920455</v>
       </c>
     </row>
-    <row r="243" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>0.52236899999999997</v>
       </c>
@@ -42457,7 +42403,7 @@
         <v>33.799680772075106</v>
       </c>
     </row>
-    <row r="244" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>0.52551999999999999</v>
       </c>
@@ -42630,7 +42576,7 @@
         <v>33.605945260466406</v>
       </c>
     </row>
-    <row r="245" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>0.52678000000000003</v>
       </c>
@@ -42803,7 +42749,7 @@
         <v>33.528971423534898</v>
       </c>
     </row>
-    <row r="246" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>0.52866999999999997</v>
       </c>
@@ -42976,7 +42922,7 @@
         <v>33.414036618616684</v>
       </c>
     </row>
-    <row r="247" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>0.53119099999999997</v>
       </c>
@@ -43149,7 +43095,7 @@
         <v>33.261703305619726</v>
       </c>
     </row>
-    <row r="248" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>0.55261499999999997</v>
       </c>
@@ -43322,7 +43268,7 @@
         <v>32.01036147639757</v>
       </c>
     </row>
-    <row r="249" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>0.57592900000000002</v>
       </c>
@@ -43495,7 +43441,7 @@
         <v>30.730601312306597</v>
       </c>
     </row>
-    <row r="250" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>0.60491499999999998</v>
       </c>
@@ -43668,7 +43614,7 @@
         <v>29.246686605995954</v>
       </c>
     </row>
-    <row r="251" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>0.608066</v>
       </c>
@@ -43841,7 +43787,7 @@
         <v>29.091998007080086</v>
       </c>
     </row>
-    <row r="252" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>0.61310600000000004</v>
       </c>
@@ -44014,7 +43960,7 @@
         <v>28.84714103155347</v>
       </c>
     </row>
-    <row r="253" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>0.63200999999999996</v>
       </c>
@@ -44187,7 +44133,7 @@
         <v>27.95587752614518</v>
       </c>
     </row>
-    <row r="254" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>0.63894099999999998</v>
       </c>
@@ -44360,7 +44306,7 @@
         <v>27.639413937078452</v>
       </c>
     </row>
-    <row r="255" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>0.64083199999999996</v>
       </c>
@@ -44533,7 +44479,7 @@
         <v>27.553998909969842</v>
       </c>
     </row>
-    <row r="256" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>0.64965300000000004</v>
       </c>
@@ -44706,7 +44652,7 @@
         <v>27.160691073362571</v>
       </c>
     </row>
-    <row r="257" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>0.65154400000000001</v>
       </c>
@@ -44879,7 +44825,7 @@
         <v>27.077458014047686</v>
       </c>
     </row>
-    <row r="258" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>0.65217400000000003</v>
       </c>
@@ -45052,7 +44998,7 @@
         <v>27.049811971127696</v>
       </c>
     </row>
-    <row r="259" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>0.65595499999999995</v>
       </c>
@@ -45225,7 +45171,7 @@
         <v>26.88476316710981</v>
       </c>
     </row>
-    <row r="260" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>0.65658499999999997</v>
       </c>
@@ -45398,7 +45344,7 @@
         <v>26.857406574712648</v>
       </c>
     </row>
-    <row r="261" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>0.66036499999999998</v>
       </c>
@@ -45571,7 +45517,7 @@
         <v>26.694123574833846</v>
       </c>
     </row>
-    <row r="262" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>0.66288599999999998</v>
       </c>
@@ -45744,7 +45690,7 @@
         <v>26.5860342288778</v>
       </c>
     </row>
-    <row r="263" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>0.67485799999999996</v>
       </c>
@@ -45917,7 +45863,7 @@
         <v>26.081368689252372</v>
       </c>
     </row>
-    <row r="264" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>0.67674900000000004</v>
       </c>
@@ -46090,7 +46036,7 @@
         <v>26.002935224330614</v>
       </c>
     </row>
-    <row r="265" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>0.68115899999999996</v>
       </c>
@@ -46263,7 +46209,7 @@
         <v>25.821346668875066</v>
       </c>
     </row>
-    <row r="266" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>0.68242000000000003</v>
       </c>
@@ -46436,7 +46382,7 @@
         <v>25.769761192493689</v>
       </c>
     </row>
-    <row r="267" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>0.68367999999999995</v>
       </c>
@@ -46609,7 +46555,7 @@
         <v>25.718365566704861</v>
       </c>
     </row>
-    <row r="268" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>0.68872100000000003</v>
       </c>
@@ -46782,7 +46728,7 @@
         <v>25.514218112500942</v>
       </c>
     </row>
-    <row r="269" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>0.69061099999999997</v>
       </c>
@@ -46955,7 +46901,7 @@
         <v>25.438280686793647</v>
       </c>
     </row>
-    <row r="270" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>0.69187100000000001</v>
       </c>
@@ -47128,7 +47074,7 @@
         <v>25.387836553100726</v>
       </c>
     </row>
-    <row r="271" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>0.69376199999999999</v>
       </c>
@@ -47301,7 +47247,7 @@
         <v>25.31240014069666</v>
       </c>
     </row>
-    <row r="272" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>0.69439200000000001</v>
       </c>
@@ -47474,7 +47420,7 @@
         <v>25.287339563899863</v>
       </c>
     </row>
-    <row r="273" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>0.69502200000000003</v>
       </c>
@@ -47647,7 +47593,7 @@
         <v>25.262314636981941</v>
       </c>
     </row>
-    <row r="274" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>0.69880299999999995</v>
       </c>
@@ -47820,7 +47766,7 @@
         <v>25.112869895969574</v>
       </c>
     </row>
-    <row r="275" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>0.70762400000000003</v>
       </c>
@@ -47993,7 +47939,7 @@
         <v>24.769103785394279</v>
       </c>
     </row>
-    <row r="276" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>0.70888499999999999</v>
       </c>
@@ -48166,7 +48112,7 @@
         <v>24.720510632564036</v>
       </c>
     </row>
-    <row r="277" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>0.71077500000000005</v>
       </c>
@@ -48339,7 +48285,7 @@
         <v>24.647932607079092</v>
       </c>
     </row>
-    <row r="278" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>0.71266499999999999</v>
       </c>
@@ -48512,7 +48458,7 @@
         <v>24.575657379664463</v>
       </c>
     </row>
-    <row r="279" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>0.71329600000000004</v>
       </c>
@@ -48685,7 +48631,7 @@
         <v>24.551594472722982</v>
       </c>
     </row>
-    <row r="280" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>0.71581600000000001</v>
       </c>
@@ -48858,7 +48804,7 @@
         <v>24.455828251724604</v>
       </c>
     </row>
-    <row r="281" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>0.71833599999999997</v>
       </c>
@@ -49031,7 +48977,7 @@
         <v>24.360590964501434</v>
       </c>
     </row>
-    <row r="282" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>0.72337700000000005</v>
       </c>
@@ -49204,7 +49150,7 @@
         <v>24.17164755745889</v>
       </c>
     </row>
-    <row r="283" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>0.724638</v>
       </c>
@@ -49377,7 +49323,7 @@
         <v>24.124707410183184</v>
       </c>
     </row>
-    <row r="284" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>0.72904899999999995</v>
       </c>
@@ -49550,7 +49496,7 @@
         <v>23.961516988572136</v>
       </c>
     </row>
-    <row r="285" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>0.72967899999999997</v>
       </c>
@@ -49723,7 +49669,7 @@
         <v>23.938336267903622</v>
       </c>
     </row>
-    <row r="286" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>0.73787000000000003</v>
       </c>
@@ -49896,7 +49842,7 @@
         <v>23.639794384872104</v>
       </c>
     </row>
-    <row r="287" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>0.73850000000000005</v>
       </c>
@@ -50069,7 +50015,7 @@
         <v>23.617048864600577</v>
       </c>
     </row>
-    <row r="288" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>0.739761</v>
       </c>
@@ -50242,7 +50188,7 @@
         <v>23.571613538348942</v>
       </c>
     </row>
-    <row r="289" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>0.74039100000000002</v>
       </c>
@@ -50415,7 +50361,7 @@
         <v>23.548959633717978</v>
       </c>
     </row>
-    <row r="290" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>0.74228099999999997</v>
       </c>
@@ -50588,7 +50534,7 @@
         <v>23.481180020116994</v>
       </c>
     </row>
-    <row r="291" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>0.74354100000000001</v>
       </c>
@@ -50761,7 +50707,7 @@
         <v>23.436144719740959</v>
       </c>
     </row>
-    <row r="292" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>0.74480199999999996</v>
       </c>
@@ -50934,7 +50880,7 @@
         <v>23.391194111806229</v>
       </c>
     </row>
-    <row r="293" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>0.746062</v>
       </c>
@@ -51107,7 +51053,7 @@
         <v>23.346398982611476</v>
       </c>
     </row>
-    <row r="294" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>0.74732200000000004</v>
       </c>
@@ -51280,7 +51226,7 @@
         <v>23.301723133664566</v>
       </c>
     </row>
-    <row r="295" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>0.74795199999999995</v>
       </c>
@@ -51453,7 +51399,7 @@
         <v>23.279429782568812</v>
       </c>
     </row>
-    <row r="296" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>0.75803399999999999</v>
       </c>
@@ -51626,7 +51572,7 @@
         <v>22.926655053058987</v>
       </c>
     </row>
-    <row r="297" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>0.76181500000000002</v>
       </c>
@@ -51799,7 +51745,7 @@
         <v>22.796261413803784</v>
       </c>
     </row>
-    <row r="298" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>0.76307499999999995</v>
       </c>
@@ -51972,7 +51918,7 @@
         <v>22.753035468585566</v>
       </c>
     </row>
-    <row r="299" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>0.76559500000000003</v>
       </c>
@@ -52145,7 +52091,7 @@
         <v>22.666921365273467</v>
       </c>
     </row>
-    <row r="300" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>0.76874600000000004</v>
       </c>
@@ -52318,7 +52264,7 @@
         <v>22.559873463599175</v>
       </c>
     </row>
-    <row r="301" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>0.77252699999999996</v>
       </c>
@@ -52491,7 +52437,7 @@
         <v>22.432335801327618</v>
       </c>
     </row>
-    <row r="302" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>0.77882799999999996</v>
       </c>
@@ -52664,7 +52610,7 @@
         <v>22.221977082826768</v>
       </c>
     </row>
-    <row r="303" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>0.78827999999999998</v>
       </c>
@@ -52837,7 +52783,7 @@
         <v>21.911429642172379</v>
       </c>
     </row>
-    <row r="304" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>0.79079999999999995</v>
       </c>
@@ -53010,7 +52956,7 @@
         <v>21.829629495385184</v>
       </c>
     </row>
-    <row r="305" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>0.79269100000000003</v>
       </c>
@@ -53183,7 +53129,7 @@
         <v>21.768517994696694</v>
       </c>
     </row>
-    <row r="306" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>0.795211</v>
       </c>
@@ -53356,7 +53302,7 @@
         <v>21.687437686659699</v>
       </c>
     </row>
-    <row r="307" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>0.80025199999999996</v>
       </c>
@@ -53529,7 +53475,7 @@
         <v>21.526462373322758</v>
       </c>
     </row>
-    <row r="308" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>0.804033</v>
       </c>
@@ -53702,7 +53648,7 @@
         <v>21.406775792328588</v>
       </c>
     </row>
-    <row r="309" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>0.807813</v>
       </c>
@@ -53875,7 +53821,7 @@
         <v>21.288011236611332</v>
       </c>
     </row>
-    <row r="310" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>0.81096400000000002</v>
       </c>
@@ -54048,7 +53994,7 @@
         <v>21.189682198632731</v>
       </c>
     </row>
-    <row r="311" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>0.81600499999999998</v>
       </c>
@@ -54221,7 +54167,7 @@
         <v>21.033631088278653</v>
       </c>
     </row>
-    <row r="312" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>0.81789500000000004</v>
       </c>
@@ -54394,7 +54340,7 @@
         <v>20.975518033026191</v>
       </c>
     </row>
-    <row r="313" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>0.82230599999999998</v>
       </c>
@@ -54567,7 +54513,7 @@
         <v>20.840717506374823</v>
       </c>
     </row>
-    <row r="314" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>0.82419699999999996</v>
       </c>
@@ -54740,7 +54686,7 @@
         <v>20.783280176279376</v>
       </c>
     </row>
-    <row r="315" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>0.82860699999999998</v>
       </c>
@@ -54913,7 +54859,7 @@
         <v>20.650141992914683</v>
       </c>
     </row>
-    <row r="316" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>0.83427899999999999</v>
       </c>
@@ -55086,7 +55032,7 @@
         <v>20.480553623350936</v>
       </c>
     </row>
-    <row r="317" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>0.83490900000000001</v>
       </c>
@@ -55259,7 +55205,7 @@
         <v>20.46183041676867</v>
       </c>
     </row>
-    <row r="318" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>0.83868900000000002</v>
       </c>
@@ -55432,7 +55378,7 @@
         <v>20.349962093173403</v>
       </c>
     </row>
-    <row r="319" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>0.84057999999999999</v>
       </c>
@@ -55605,7 +55551,7 @@
         <v>20.294299376211832</v>
       </c>
     </row>
-    <row r="320" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>0.84436</v>
       </c>
@@ -55778,7 +55724,7 @@
         <v>20.183628919664869</v>
       </c>
     </row>
-    <row r="321" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>0.84562099999999996</v>
       </c>
@@ -55951,7 +55897,7 @@
         <v>20.1468850412462</v>
       </c>
     </row>
-    <row r="322" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>0.85696300000000003</v>
       </c>
@@ -56124,7 +56070,7 @@
         <v>19.82027827989662</v>
       </c>
     </row>
-    <row r="323" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>0.85822299999999996</v>
       </c>
@@ -56297,7 +56243,7 @@
         <v>19.784420644389435</v>
       </c>
     </row>
-    <row r="324" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>0.86515399999999998</v>
       </c>
@@ -56470,7 +56416,7 @@
         <v>19.588667990903886</v>
       </c>
     </row>
-    <row r="325" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>0.86767499999999997</v>
       </c>
@@ -56643,7 +56589,7 @@
         <v>19.518087292166044</v>
       </c>
     </row>
-    <row r="326" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>0.86893500000000001</v>
       </c>
@@ -56816,7 +56762,7 @@
         <v>19.482933624730549</v>
       </c>
     </row>
-    <row r="327" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>0.86956500000000003</v>
       </c>
@@ -56989,7 +56935,7 @@
         <v>19.465387322943378</v>
       </c>
     </row>
-    <row r="328" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>0.87082499999999996</v>
       </c>
@@ -57162,7 +57108,7 @@
         <v>19.430355597461975</v>
       </c>
     </row>
-    <row r="329" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>0.87145600000000001</v>
       </c>
@@ -57335,7 +57281,7 @@
         <v>19.412842361042884</v>
       </c>
     </row>
-    <row r="330" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>0.87208600000000003</v>
       </c>
@@ -57508,7 +57454,7 @@
         <v>19.395377089491248</v>
       </c>
     </row>
-    <row r="331" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>0.87397599999999998</v>
       </c>
@@ -57681,7 +57627,7 @@
         <v>19.343102071985193</v>
       </c>
     </row>
-    <row r="332" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>0.880907</v>
       </c>
@@ -57854,7 +57800,7 @@
         <v>19.152935969395976</v>
       </c>
     </row>
-    <row r="333" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>0.88279799999999997</v>
       </c>
@@ -58027,7 +57973,7 @@
         <v>19.101467535211164</v>
       </c>
     </row>
-    <row r="334" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>0.88405800000000001</v>
       </c>
@@ -58200,7 +58146,7 @@
         <v>19.067271209176454</v>
       </c>
     </row>
-    <row r="335" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>0.88594799999999996</v>
       </c>
@@ -58373,7 +58319,7 @@
         <v>19.016122698307406</v>
       </c>
     </row>
-    <row r="336" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>0.88909899999999997</v>
       </c>
@@ -58546,7 +58492,7 @@
         <v>18.931235268351308</v>
       </c>
     </row>
-    <row r="337" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>0.89161900000000005</v>
       </c>
@@ -58719,7 +58665,7 @@
         <v>18.863692705039561</v>
       </c>
     </row>
-    <row r="338" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>0.89224999999999999</v>
       </c>
@@ -58892,7 +58838,7 @@
         <v>18.846828090102782</v>
       </c>
     </row>
-    <row r="339" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>0.89729000000000003</v>
       </c>
@@ -59065,7 +59011,7 @@
         <v>18.712807236074354</v>
       </c>
     </row>
-    <row r="340" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>0.89855099999999999</v>
       </c>
@@ -59238,7 +59184,7 @@
         <v>18.679463858949752</v>
       </c>
     </row>
-    <row r="341" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>0.89918100000000001</v>
       </c>
@@ -59411,7 +59357,7 @@
         <v>18.662833460049995</v>
       </c>
     </row>
-    <row r="342" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>0.90422199999999997</v>
       </c>
@@ -59584,7 +59530,7 @@
         <v>18.530433060368189</v>
       </c>
     </row>
-    <row r="343" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>0.90548200000000001</v>
       </c>
@@ -59757,7 +59703,7 @@
         <v>18.497524172514559</v>
       </c>
     </row>
-    <row r="344" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>0.90611200000000003</v>
       </c>
@@ -59930,7 +59876,7 @@
         <v>18.481097242436626</v>
       </c>
     </row>
-    <row r="345" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>0.90674200000000005</v>
       </c>
@@ -60103,7 +60049,7 @@
         <v>18.46468861193712</v>
       </c>
     </row>
-    <row r="346" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>0.90926300000000004</v>
       </c>
@@ -60276,7 +60222,7 @@
         <v>18.399210528667972</v>
       </c>
     </row>
-    <row r="347" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>0.91115299999999999</v>
       </c>
@@ -60449,7 +60395,7 @@
         <v>18.350312067083053</v>
       </c>
     </row>
-    <row r="348" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>0.91304300000000005</v>
       </c>
@@ -60622,7 +60568,7 @@
         <v>18.301576006708643</v>
       </c>
     </row>
-    <row r="349" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>0.91871499999999995</v>
       </c>
@@ -60795,7 +60741,7 @@
         <v>18.156282791780121</v>
       </c>
     </row>
-    <row r="350" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>0.92123500000000003</v>
       </c>
@@ -60968,7 +60914,7 @@
         <v>18.092191696804804</v>
       </c>
     </row>
-    <row r="351" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>0.92438600000000004</v>
       </c>
@@ -61141,7 +61087,7 @@
         <v>18.012447213276396</v>
       </c>
     </row>
-    <row r="352" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>0.92501599999999995</v>
       </c>
@@ -61314,7 +61260,7 @@
         <v>17.996555705700374</v>
       </c>
     </row>
-    <row r="353" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>0.92564599999999997</v>
       </c>
@@ -61487,7 +61433,7 @@
         <v>17.980681565870995</v>
       </c>
     </row>
-    <row r="354" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>0.92816600000000005</v>
       </c>
@@ -61660,7 +61606,7 @@
         <v>17.917358086578531</v>
       </c>
     </row>
-    <row r="355" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>0.93131699999999995</v>
       </c>
@@ -61833,7 +61779,7 @@
         <v>17.838566004093614</v>
       </c>
     </row>
-    <row r="356" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>0.93257699999999999</v>
       </c>
@@ -62006,7 +61952,7 @@
         <v>17.807178907287536</v>
       </c>
     </row>
-    <row r="357" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>0.94013899999999995</v>
       </c>
@@ -62179,7 +62125,7 @@
         <v>17.62022821408749</v>
       </c>
     </row>
-    <row r="358" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>0.94328900000000004</v>
       </c>
@@ -62352,7 +62298,7 @@
         <v>17.543064071594685</v>
       </c>
     </row>
-    <row r="359" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>0.94518000000000002</v>
       </c>
@@ -62525,7 +62471,7 @@
         <v>17.496939791078184</v>
       </c>
     </row>
-    <row r="360" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>0.94581000000000004</v>
       </c>
@@ -62698,7 +62644,7 @@
         <v>17.481606099503985</v>
       </c>
     </row>
-    <row r="361" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>0.94643999999999995</v>
       </c>
@@ -62871,7 +62817,7 @@
         <v>17.466288824101142</v>
       </c>
     </row>
-    <row r="362" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>0.94706999999999997</v>
       </c>
@@ -63044,7 +62990,7 @@
         <v>17.450987937165465</v>
       </c>
     </row>
-    <row r="363" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>0.94769999999999999</v>
       </c>
@@ -63217,7 +63163,7 @@
         <v>17.435703411056743</v>
       </c>
     </row>
-    <row r="364" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>0.95022099999999998</v>
       </c>
@@ -63390,7 +63336,7 @@
         <v>17.374704219507251</v>
       </c>
     </row>
-    <row r="365" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>0.950851</v>
       </c>
@@ -63563,7 +63509,7 @@
         <v>17.359501110885255</v>
       </c>
     </row>
-    <row r="366" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>0.95211100000000004</v>
       </c>
@@ -63736,7 +63682,7 @@
         <v>17.329143455268571</v>
       </c>
     </row>
-    <row r="367" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>0.95337099999999997</v>
       </c>
@@ -63909,7 +63855,7 @@
         <v>17.298850367482828</v>
       </c>
     </row>
-    <row r="368" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>0.95400099999999999</v>
       </c>
@@ -64082,7 +64028,7 @@
         <v>17.283727968883099</v>
       </c>
     </row>
-    <row r="369" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>0.95463100000000001</v>
       </c>
@@ -64255,7 +64201,7 @@
         <v>17.268621631193035</v>
       </c>
     </row>
-    <row r="370" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>0.95652199999999998</v>
       </c>
@@ -64428,7 +64374,7 @@
         <v>17.223374825617384</v>
       </c>
     </row>
-    <row r="371" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>0.95904199999999995</v>
       </c>
@@ -64601,7 +64547,7 @@
         <v>17.163300933607736</v>
       </c>
     </row>
-    <row r="372" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>0.96030199999999999</v>
       </c>
@@ -64774,7 +64720,7 @@
         <v>17.133359178562941</v>
       </c>
     </row>
-    <row r="373" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>0.96408300000000002</v>
       </c>
@@ -64947,7 +64893,7 @@
         <v>17.043888560168043</v>
       </c>
     </row>
-    <row r="374" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>0.96849399999999997</v>
       </c>
@@ -65120,7 +65066,7 @@
         <v>16.940221592128118</v>
       </c>
     </row>
-    <row r="375" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>0.96912399999999999</v>
       </c>
@@ -65293,7 +65239,7 @@
         <v>16.92547743080862</v>
       </c>
     </row>
-    <row r="376" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>0.97038400000000002</v>
       </c>
@@ -65466,7 +65412,7 @@
         <v>16.896035379117983</v>
       </c>
     </row>
-    <row r="377" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>0.97101400000000004</v>
       </c>
@@ -65639,7 +65585,7 @@
         <v>16.88133743788962</v>
       </c>
     </row>
-    <row r="378" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>0.97164499999999998</v>
       </c>
@@ -65812,7 +65758,7 @@
         <v>16.866631559098884</v>
       </c>
     </row>
-    <row r="379" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>0.972275</v>
       </c>
@@ -65985,7 +65931,7 @@
         <v>16.85196432877008</v>
       </c>
     </row>
-    <row r="380" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>0.97290500000000002</v>
       </c>
@@ -66158,7 +66104,7 @@
         <v>16.837312403822594</v>
       </c>
     </row>
-    <row r="381" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>0.97353500000000004</v>
       </c>
@@ -66331,7 +66277,7 @@
         <v>16.822675759084753</v>
       </c>
     </row>
-    <row r="382" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>0.97479499999999997</v>
       </c>
@@ -66504,7 +66450,7 @@
         <v>16.793448209834175</v>
       </c>
     </row>
-    <row r="383" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>0.97605500000000001</v>
       </c>
@@ -66677,7 +66623,7 @@
         <v>16.764281480774429</v>
       </c>
     </row>
-    <row r="384" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>0.97668600000000005</v>
       </c>
@@ -66850,7 +66796,7 @@
         <v>16.749697761425367</v>
       </c>
     </row>
-    <row r="385" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>0.97983600000000004</v>
       </c>
@@ -67023,7 +66969,7 @@
         <v>16.677121245274989</v>
       </c>
     </row>
-    <row r="386" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>0.98046599999999995</v>
       </c>
@@ -67196,7 +67142,7 @@
         <v>16.662651061392253</v>
       </c>
     </row>
-    <row r="387" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>0.98109599999999997</v>
       </c>
@@ -67369,7 +67315,7 @@
         <v>16.648195859990778</v>
       </c>
     </row>
-    <row r="388" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>0.98235700000000004</v>
       </c>
@@ -67542,7 +67488,7 @@
         <v>16.619307421435295</v>
       </c>
     </row>
-    <row r="389" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>0.98361699999999996</v>
       </c>
@@ -67715,7 +67661,7 @@
         <v>16.590501552850725</v>
       </c>
     </row>
-    <row r="390" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>0.984877</v>
       </c>
@@ -67888,7 +67834,7 @@
         <v>16.561755127308558</v>
       </c>
     </row>
-    <row r="391" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>0.98550700000000002</v>
       </c>
@@ -68061,7 +68007,7 @@
         <v>16.547404145270427</v>
       </c>
     </row>
-    <row r="392" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>0.98613700000000004</v>
       </c>
@@ -68234,7 +68180,7 @@
         <v>16.533067951610825</v>
       </c>
     </row>
-    <row r="393" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>0.98676699999999995</v>
       </c>
@@ -68407,7 +68353,7 @@
         <v>16.518746522314068</v>
       </c>
     </row>
-    <row r="394" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>0.987398</v>
       </c>
@@ -68580,7 +68526,7 @@
         <v>16.504417136092442</v>
       </c>
     </row>
-    <row r="395" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>0.98802800000000002</v>
       </c>
@@ -68753,7 +68699,7 @@
         <v>16.490125187028092</v>
       </c>
     </row>
-    <row r="396" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>0.98928799999999995</v>
       </c>
@@ -68926,7 +68872,7 @@
         <v>16.461585342888547</v>
       </c>
     </row>
-    <row r="397" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>0.98991799999999996</v>
       </c>
@@ -69099,7 +69045,7 @@
         <v>16.447337400259826</v>
       </c>
     </row>
-    <row r="398" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>0.99054799999999998</v>
       </c>
@@ -69272,7 +69218,7 @@
         <v>16.433104078977195</v>
       </c>
     </row>
-    <row r="399" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>0.991178</v>
       </c>
@@ -69445,7 +69391,7 @@
         <v>16.418885355395311</v>
       </c>
     </row>
-    <row r="400" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>0.99180800000000002</v>
       </c>
@@ -69618,7 +69564,7 @@
         <v>16.404681205921101</v>
       </c>
     </row>
-    <row r="401" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>0.99243899999999996</v>
       </c>
@@ -69791,7 +69737,7 @@
         <v>16.390469095394735</v>
       </c>
     </row>
-    <row r="402" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>0.99306899999999998</v>
       </c>
@@ -69964,7 +69910,7 @@
         <v>16.376294046605381</v>
       </c>
     </row>
-    <row r="403" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>0.993699</v>
       </c>
@@ -70137,7 +70083,7 @@
         <v>16.362133501419684</v>
       </c>
     </row>
-    <row r="404" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>0.99432900000000002</v>
       </c>

--- a/Raw_data_cleaned/Burley/Burley21-2.xlsx
+++ b/Raw_data_cleaned/Burley/Burley21-2.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vitvaraaravithya/Documents/tobacco_project_review/Raw_data_cleaned/Burley/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tobacco\Raw_data_cleaned\Burley\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E80EEB2-8AAC-2E48-8118-8D5B919F3B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{70F48B70-9F4C-49D5-83C1-7B70CD070D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4120" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8360" yWindow="2250" windowWidth="28740" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -41,7 +41,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -355,16 +355,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B9AF02-60A8-FC45-8851-57BAEFFEA3ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BE404"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="32" workbookViewId="0">
-      <selection activeCell="N44" sqref="N44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:BE404"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,7 +537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>6.3000000000000003E-4</v>
       </c>
@@ -710,7 +710,7 @@
         <v>285.12124903741795</v>
       </c>
     </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1.2600000000000001E-3</v>
       </c>
@@ -883,7 +883,7 @@
         <v>279.26216962135476</v>
       </c>
     </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1.89E-3</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>274.24615988144967</v>
       </c>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2.5200000000000001E-3</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>269.75040968455119</v>
       </c>
     </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3.1510000000000002E-3</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>265.62362037660381</v>
       </c>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4.411E-3</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>258.20736901020774</v>
       </c>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5.0410000000000003E-3</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>254.82008273953039</v>
       </c>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8.1919999999999996E-3</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>240.11613256148308</v>
       </c>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8.822E-3</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>237.5224420175968</v>
       </c>
     </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9.4520000000000003E-3</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>235.02100516503219</v>
       </c>
     </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1.0711999999999999E-2</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>230.26739868139228</v>
       </c>
     </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1.1342E-2</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>228.0035884536907</v>
       </c>
     </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1.1972E-2</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>225.80846284303118</v>
       </c>
     </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1.5122999999999999E-2</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>215.72356168660829</v>
       </c>
     </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>2.4575E-2</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>191.82258116147747</v>
       </c>
     </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>2.5205000000000002E-2</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>190.4773710608479</v>
       </c>
     </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>2.9616E-2</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>181.70770726555111</v>
       </c>
     </row>
-    <row r="19" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>3.2766000000000003E-2</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>176.0512201280448</v>
       </c>
     </row>
-    <row r="20" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>3.4026000000000001E-2</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>173.9113490381803</v>
       </c>
     </row>
-    <row r="21" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>3.5286999999999999E-2</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>171.83426743115317</v>
       </c>
     </row>
-    <row r="22" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>3.9066999999999998E-2</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>165.96188308573818</v>
       </c>
     </row>
-    <row r="23" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>4.2217999999999999E-2</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>161.43026512366751</v>
       </c>
     </row>
-    <row r="24" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>4.5369E-2</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>157.18936348096094</v>
       </c>
     </row>
-    <row r="25" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>4.6628999999999997E-2</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>155.56777347866995</v>
       </c>
     </row>
-    <row r="26" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>4.8519E-2</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>153.20928968919009</v>
       </c>
     </row>
-    <row r="27" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>4.9148999999999998E-2</v>
       </c>
@@ -5035,7 +5035,7 @@
         <v>152.44201353537653</v>
       </c>
     </row>
-    <row r="28" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>5.1670000000000001E-2</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>149.46110742157884</v>
       </c>
     </row>
-    <row r="29" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>5.9860999999999998E-2</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>140.65505787860084</v>
       </c>
     </row>
-    <row r="30" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>6.3642000000000004E-2</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>136.98318237316278</v>
       </c>
     </row>
-    <row r="31" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>6.4902000000000001E-2</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>135.80814213926226</v>
       </c>
     </row>
-    <row r="32" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>6.5532000000000007E-2</v>
       </c>
@@ -5900,7 +5900,7 @@
         <v>135.22927563344936</v>
       </c>
     </row>
-    <row r="33" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>6.8682999999999994E-2</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>132.41688649220711</v>
       </c>
     </row>
-    <row r="34" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>7.1204000000000003E-2</v>
       </c>
@@ -6246,7 +6246,7 @@
         <v>130.26104058344333</v>
       </c>
     </row>
-    <row r="35" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>7.3723999999999998E-2</v>
       </c>
@@ -6419,7 +6419,7 @@
         <v>128.18422696749431</v>
       </c>
     </row>
-    <row r="36" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>7.4354000000000003E-2</v>
       </c>
@@ -6592,7 +6592,7 @@
         <v>127.67668208957436</v>
       </c>
     </row>
-    <row r="37" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>7.5614000000000001E-2</v>
       </c>
@@ -6765,7 +6765,7 @@
         <v>126.67509593627098</v>
       </c>
     </row>
-    <row r="38" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>8.5066000000000003E-2</v>
       </c>
@@ -6938,7 +6938,7 @@
         <v>119.68830630895751</v>
       </c>
     </row>
-    <row r="39" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>8.6957000000000007E-2</v>
       </c>
@@ -7111,7 +7111,7 @@
         <v>118.39205082518056</v>
       </c>
     </row>
-    <row r="40" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>9.0736999999999998E-2</v>
       </c>
@@ -7284,7 +7284,7 @@
         <v>115.89181968773978</v>
       </c>
     </row>
-    <row r="41" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>9.5147999999999996E-2</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>113.11721395580601</v>
       </c>
     </row>
-    <row r="42" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>9.6407999999999994E-2</v>
       </c>
@@ -7630,7 +7630,7 @@
         <v>112.35118174006151</v>
       </c>
     </row>
-    <row r="43" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>9.8929000000000003E-2</v>
       </c>
@@ -7803,7 +7803,7 @@
         <v>110.85204879703018</v>
       </c>
     </row>
-    <row r="44" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>0.101449</v>
       </c>
@@ -7976,7 +7976,7 @@
         <v>109.39644423829971</v>
       </c>
     </row>
-    <row r="45" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>0.10586</v>
       </c>
@@ -8149,7 +8149,7 @@
         <v>106.94595536585084</v>
       </c>
     </row>
-    <row r="46" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>0.10838100000000001</v>
       </c>
@@ -8322,7 +8322,7 @@
         <v>105.59797787904994</v>
       </c>
     </row>
-    <row r="47" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>0.11468200000000001</v>
       </c>
@@ -8495,7 +8495,7 @@
         <v>102.3833391025574</v>
       </c>
     </row>
-    <row r="48" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>0.115942</v>
       </c>
@@ -8668,7 +8668,7 @@
         <v>101.76548802171226</v>
       </c>
     </row>
-    <row r="49" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>0.121613</v>
       </c>
@@ -8841,7 +8841,7 @@
         <v>99.080298253039317</v>
       </c>
     </row>
-    <row r="50" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>0.123503</v>
       </c>
@@ -9014,7 +9014,7 @@
         <v>98.218519220918992</v>
       </c>
     </row>
-    <row r="51" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>0.126024</v>
       </c>
@@ -9187,7 +9187,7 @@
         <v>97.093434202692109</v>
       </c>
     </row>
-    <row r="52" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>0.129805</v>
       </c>
@@ -9360,7 +9360,7 @@
         <v>95.456131753973764</v>
       </c>
     </row>
-    <row r="53" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>0.13358500000000001</v>
       </c>
@@ -9533,7 +9533,7 @@
         <v>93.876313079759626</v>
       </c>
     </row>
-    <row r="54" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>0.13484599999999999</v>
       </c>
@@ -9706,7 +9706,7 @@
         <v>93.361420550602304</v>
       </c>
     </row>
-    <row r="55" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>0.13799600000000001</v>
       </c>
@@ -9879,7 +9879,7 @@
         <v>92.100666623013652</v>
       </c>
     </row>
-    <row r="56" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>0.138626</v>
       </c>
@@ -10052,7 +10052,7 @@
         <v>91.852771973847354</v>
       </c>
     </row>
-    <row r="57" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>0.14240700000000001</v>
       </c>
@@ -10225,7 +10225,7 @@
         <v>90.393745316838007</v>
       </c>
     </row>
-    <row r="58" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>0.143037</v>
       </c>
@@ -10398,7 +10398,7 @@
         <v>90.155312061136073</v>
       </c>
     </row>
-    <row r="59" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>0.14366699999999999</v>
       </c>
@@ -10571,7 +10571,7 @@
         <v>89.918182065561055</v>
       </c>
     </row>
-    <row r="60" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>0.147448</v>
       </c>
@@ -10744,7 +10744,7 @@
         <v>88.521769476469558</v>
       </c>
     </row>
-    <row r="61" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>0.15059900000000001</v>
       </c>
@@ -10917,7 +10917,7 @@
         <v>87.391851812997572</v>
       </c>
     </row>
-    <row r="62" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>0.161941</v>
       </c>
@@ -11090,7 +11090,7 @@
         <v>83.559211271130124</v>
       </c>
     </row>
-    <row r="63" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>0.163831</v>
       </c>
@@ -11263,7 +11263,7 @@
         <v>82.953738968688896</v>
       </c>
     </row>
-    <row r="64" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>0.166352</v>
       </c>
@@ -11436,7 +11436,7 @@
         <v>82.159905020714106</v>
       </c>
     </row>
-    <row r="65" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>0.16698199999999999</v>
       </c>
@@ -11609,7 +11609,7 @@
         <v>81.963934036605124</v>
       </c>
     </row>
-    <row r="66" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>0.16761200000000001</v>
       </c>
@@ -11782,7 +11782,7 @@
         <v>81.768911140889116</v>
       </c>
     </row>
-    <row r="67" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>0.17013200000000001</v>
       </c>
@@ -11955,7 +11955,7 @@
         <v>80.998153396427313</v>
       </c>
     </row>
-    <row r="68" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>0.17391300000000001</v>
       </c>
@@ -12128,7 +12128,7 @@
         <v>79.86894093836527</v>
       </c>
     </row>
-    <row r="69" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>0.174543</v>
       </c>
@@ -12301,7 +12301,7 @@
         <v>79.68387638369029</v>
       </c>
     </row>
-    <row r="70" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>0.191556</v>
       </c>
@@ -12474,7 +12474,7 @@
         <v>74.993002277212298</v>
       </c>
     </row>
-    <row r="71" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>0.19533700000000001</v>
       </c>
@@ -12647,7 +12647,7 @@
         <v>74.024510719760016</v>
       </c>
     </row>
-    <row r="72" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>0.19659699999999999</v>
       </c>
@@ -12820,7 +12820,7 @@
         <v>73.707264223371141</v>
       </c>
     </row>
-    <row r="73" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>0.19722700000000001</v>
       </c>
@@ -12993,7 +12993,7 @@
         <v>73.549650576587894</v>
       </c>
     </row>
-    <row r="74" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>0.19785800000000001</v>
       </c>
@@ -13166,7 +13166,7 @@
         <v>73.392455275538239</v>
       </c>
     </row>
-    <row r="75" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>0.20604900000000001</v>
       </c>
@@ -13339,7 +13339,7 @@
         <v>71.410607919873726</v>
       </c>
     </row>
-    <row r="76" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>0.20730899999999999</v>
       </c>
@@ -13512,7 +13512,7 @@
         <v>71.1150797467199</v>
       </c>
     </row>
-    <row r="77" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>0.2092</v>
       </c>
@@ -13685,7 +13685,7 @@
         <v>70.676040570515909</v>
       </c>
     </row>
-    <row r="78" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>0.215501</v>
       </c>
@@ -13858,7 +13858,7 @@
         <v>69.250755292248755</v>
       </c>
     </row>
-    <row r="79" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>0.217391</v>
       </c>
@@ -14031,7 +14031,7 @@
         <v>68.834144892911354</v>
       </c>
     </row>
-    <row r="80" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>0.223693</v>
       </c>
@@ -14204,7 +14204,7 @@
         <v>67.479653824687077</v>
       </c>
     </row>
-    <row r="81" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>0.22495299999999999</v>
       </c>
@@ -14377,7 +14377,7 @@
         <v>67.21504052703574</v>
       </c>
     </row>
-    <row r="82" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>0.22747300000000001</v>
       </c>
@@ -14550,7 +14550,7 @@
         <v>66.691810319133751</v>
       </c>
     </row>
-    <row r="83" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>0.22873299999999999</v>
       </c>
@@ -14723,7 +14723,7 @@
         <v>66.433145087686114</v>
       </c>
     </row>
-    <row r="84" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>0.230624</v>
       </c>
@@ -14896,7 +14896,7 @@
         <v>66.048565951482772</v>
       </c>
     </row>
-    <row r="85" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>0.23314399999999999</v>
       </c>
@@ -15069,7 +15069,7 @@
         <v>65.542704888134764</v>
       </c>
     </row>
-    <row r="86" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>0.24007600000000001</v>
       </c>
@@ -15242,7 +15242,7 @@
         <v>64.18895930752096</v>
       </c>
     </row>
-    <row r="87" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>0.240706</v>
       </c>
@@ -15415,7 +15415,7 @@
         <v>64.068588716308497</v>
       </c>
     </row>
-    <row r="88" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>0.24196599999999999</v>
       </c>
@@ -15588,7 +15588,7 @@
         <v>63.829142242001275</v>
       </c>
     </row>
-    <row r="89" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>0.24574699999999999</v>
       </c>
@@ -15761,7 +15761,7 @@
         <v>63.120798416851038</v>
       </c>
     </row>
-    <row r="90" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>0.24637700000000001</v>
       </c>
@@ -15934,7 +15934,7 @@
         <v>63.004232116820468</v>
       </c>
     </row>
-    <row r="91" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>0.247637</v>
       </c>
@@ -16107,7 +16107,7 @@
         <v>62.772329281369473</v>
       </c>
     </row>
-    <row r="92" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>0.24826699999999999</v>
       </c>
@@ -16280,7 +16280,7 @@
         <v>62.65698812939474</v>
       </c>
     </row>
-    <row r="93" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>0.24889700000000001</v>
       </c>
@@ -16453,7 +16453,7 @@
         <v>62.54205077352163</v>
       </c>
     </row>
-    <row r="94" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>0.25078800000000001</v>
       </c>
@@ -16626,7 +16626,7 @@
         <v>62.199458709801014</v>
       </c>
     </row>
-    <row r="95" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>0.25267800000000001</v>
       </c>
@@ -16799,7 +16799,7 @@
         <v>61.860602454654291</v>
       </c>
     </row>
-    <row r="96" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>0.25330799999999998</v>
       </c>
@@ -16972,7 +16972,7 @@
         <v>61.748429876589533</v>
       </c>
     </row>
-    <row r="97" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>0.25519799999999998</v>
       </c>
@@ -17145,7 +17145,7 @@
         <v>61.414220642407436</v>
       </c>
     </row>
-    <row r="98" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>0.25645899999999999</v>
       </c>
@@ -17318,7 +17318,7 @@
         <v>61.193142437864743</v>
       </c>
     </row>
-    <row r="99" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>0.258349</v>
       </c>
@@ -17491,7 +17491,7 @@
         <v>60.864601557800988</v>
       </c>
     </row>
-    <row r="100" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>0.25897900000000001</v>
       </c>
@@ -17664,7 +17664,7 @@
         <v>60.755829796113652</v>
       </c>
     </row>
-    <row r="101" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>0.26150000000000001</v>
       </c>
@@ -17837,7 +17837,7 @@
         <v>60.324228720821004</v>
       </c>
     </row>
-    <row r="102" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>0.26275999999999999</v>
       </c>
@@ -18010,7 +18010,7 @@
         <v>60.110680496022546</v>
       </c>
     </row>
-    <row r="103" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>0.26401999999999998</v>
       </c>
@@ -18183,7 +18183,7 @@
         <v>59.898555783888433</v>
       </c>
     </row>
-    <row r="104" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>0.26465</v>
       </c>
@@ -18356,7 +18356,7 @@
         <v>59.793022502787899</v>
       </c>
     </row>
-    <row r="105" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>0.26528000000000002</v>
       </c>
@@ -18529,7 +18529,7 @@
         <v>59.687839437065058</v>
       </c>
     </row>
-    <row r="106" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>0.26591100000000001</v>
       </c>
@@ -18702,7 +18702,7 @@
         <v>59.582838599640276</v>
       </c>
     </row>
-    <row r="107" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>0.26654099999999997</v>
       </c>
@@ -18875,7 +18875,7 @@
         <v>59.478350950732043</v>
       </c>
     </row>
-    <row r="108" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>0.26780100000000001</v>
       </c>
@@ -19048,7 +19048,7 @@
         <v>59.2704078661178</v>
       </c>
     </row>
-    <row r="109" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>0.26906099999999999</v>
       </c>
@@ -19221,7 +19221,7 @@
         <v>59.063829010804049</v>
       </c>
     </row>
-    <row r="110" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>0.26969100000000001</v>
       </c>
@@ -19394,7 +19394,7 @@
         <v>58.961046697765248</v>
       </c>
     </row>
-    <row r="111" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>0.27347199999999999</v>
       </c>
@@ -19567,7 +19567,7 @@
         <v>58.351182238989928</v>
       </c>
     </row>
-    <row r="112" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>0.27473199999999998</v>
       </c>
@@ -19740,7 +19740,7 @@
         <v>58.150569640924708</v>
       </c>
     </row>
-    <row r="113" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>0.275362</v>
       </c>
@@ -19913,7 +19913,7 @@
         <v>58.050747232061589</v>
       </c>
     </row>
-    <row r="114" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>0.27662300000000001</v>
       </c>
@@ -20086,7 +20086,7 @@
         <v>57.851904737811346</v>
       </c>
     </row>
-    <row r="115" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>0.27788299999999999</v>
       </c>
@@ -20259,7 +20259,7 @@
         <v>57.654488868577893</v>
       </c>
     </row>
-    <row r="116" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>0.27914299999999997</v>
       </c>
@@ -20432,7 +20432,7 @@
         <v>57.458328515609004</v>
       </c>
     </row>
-    <row r="117" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>0.28103299999999998</v>
       </c>
@@ -20605,7 +20605,7 @@
         <v>57.166414271667342</v>
       </c>
     </row>
-    <row r="118" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>0.28166400000000003</v>
       </c>
@@ -20778,7 +20778,7 @@
         <v>57.069570364527571</v>
       </c>
     </row>
-    <row r="119" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>0.28229399999999999</v>
       </c>
@@ -20951,7 +20951,7 @@
         <v>56.973184632680706</v>
       </c>
     </row>
-    <row r="120" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>0.28418399999999999</v>
       </c>
@@ -21124,7 +21124,7 @@
         <v>56.685838911296734</v>
       </c>
     </row>
-    <row r="121" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>0.28481400000000001</v>
       </c>
@@ -21297,7 +21297,7 @@
         <v>56.590655794479567</v>
       </c>
     </row>
-    <row r="122" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>0.28544399999999998</v>
       </c>
@@ -21470,7 +21470,7 @@
         <v>56.495769581695463</v>
       </c>
     </row>
-    <row r="123" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>0.28607399999999999</v>
       </c>
@@ -21643,7 +21643,7 @@
         <v>56.40117879372638</v>
       </c>
     </row>
-    <row r="124" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>0.28670400000000001</v>
       </c>
@@ -21816,7 +21816,7 @@
         <v>56.306881961530614</v>
       </c>
     </row>
-    <row r="125" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>0.28796500000000003</v>
       </c>
@@ -21989,7 +21989,7 @@
         <v>56.119015817980333</v>
       </c>
     </row>
-    <row r="126" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>0.28985499999999997</v>
       </c>
@@ -22162,7 +22162,7 @@
         <v>55.839609270083265</v>
       </c>
     </row>
-    <row r="127" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>0.29048499999999999</v>
       </c>
@@ -22335,7 +22335,7 @@
         <v>55.747046333185359</v>
       </c>
     </row>
-    <row r="128" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>0.29111500000000001</v>
       </c>
@@ -22508,7 +22508,7 @@
         <v>55.654767344088519</v>
       </c>
     </row>
-    <row r="129" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>0.29300599999999999</v>
       </c>
@@ -22681,7 +22681,7 @@
         <v>55.379475288989447</v>
       </c>
     </row>
-    <row r="130" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>0.29363600000000001</v>
       </c>
@@ -22854,7 +22854,7 @@
         <v>55.288318718011901</v>
       </c>
     </row>
-    <row r="131" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>0.29426600000000003</v>
       </c>
@@ -23027,7 +23027,7 @@
         <v>55.197439232118747</v>
       </c>
     </row>
-    <row r="132" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>0.29552600000000001</v>
       </c>
@@ -23200,7 +23200,7 @@
         <v>55.016506146461673</v>
       </c>
     </row>
-    <row r="133" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>0.29615599999999997</v>
       </c>
@@ -23373,7 +23373,7 @@
         <v>54.926449884572328</v>
       </c>
     </row>
-    <row r="134" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>0.29678599999999999</v>
       </c>
@@ -23546,7 +23546,7 @@
         <v>54.836665383363076</v>
       </c>
     </row>
-    <row r="135" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>0.29741699999999999</v>
       </c>
@@ -23719,7 +23719,7 @@
         <v>54.747009462365092</v>
       </c>
     </row>
-    <row r="136" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>0.29867700000000003</v>
       </c>
@@ -23892,7 +23892,7 @@
         <v>54.568788376398224</v>
       </c>
     </row>
-    <row r="137" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>0.29930699999999999</v>
       </c>
@@ -24065,7 +24065,7 @@
         <v>54.480078336978458</v>
       </c>
     </row>
-    <row r="138" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>0.29993700000000001</v>
       </c>
@@ -24238,7 +24238,7 @@
         <v>54.391633597652877</v>
       </c>
     </row>
-    <row r="139" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>0.30056699999999997</v>
       </c>
@@ -24411,7 +24411,7 @@
         <v>54.303452892241062</v>
       </c>
     </row>
-    <row r="140" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>0.30119699999999999</v>
       </c>
@@ -24584,7 +24584,7 @@
         <v>54.215534962901806</v>
       </c>
     </row>
-    <row r="141" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>0.30182700000000001</v>
       </c>
@@ -24757,7 +24757,7 @@
         <v>54.127878560063031</v>
       </c>
     </row>
-    <row r="142" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>0.30371799999999999</v>
       </c>
@@ -24930,7 +24930,7 @@
         <v>53.86632843815773</v>
       </c>
     </row>
-    <row r="143" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>0.30497800000000003</v>
       </c>
@@ -25103,7 +25103,7 @@
         <v>53.693339390028576</v>
       </c>
     </row>
-    <row r="144" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>0.30560799999999999</v>
       </c>
@@ -25276,7 +25276,7 @@
         <v>53.607226762114998</v>
       </c>
     </row>
-    <row r="145" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>0.30623800000000001</v>
       </c>
@@ -25449,7 +25449,7 @@
         <v>53.521367137591774</v>
       </c>
     </row>
-    <row r="146" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>0.30812899999999999</v>
       </c>
@@ -25622,7 +25622,7 @@
         <v>53.265159570233642</v>
       </c>
     </row>
-    <row r="147" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>0.30875900000000001</v>
       </c>
@@ -25795,7 +25795,7 @@
         <v>53.180300570343228</v>
       </c>
     </row>
-    <row r="148" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>0.31001899999999999</v>
       </c>
@@ -25968,7 +25968,7 @@
         <v>53.011322867513464</v>
       </c>
     </row>
-    <row r="149" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>0.31127899999999997</v>
       </c>
@@ -26141,7 +26141,7 @@
         <v>52.843324609842774</v>
       </c>
     </row>
-    <row r="150" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>0.31190899999999999</v>
       </c>
@@ -26314,7 +26314,7 @@
         <v>52.759689943766581</v>
       </c>
     </row>
-    <row r="151" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>0.31506000000000001</v>
       </c>
@@ -26487,7 +26487,7 @@
         <v>52.344986024307794</v>
       </c>
     </row>
-    <row r="152" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>0.31695000000000001</v>
       </c>
@@ -26660,7 +26660,7 @@
         <v>52.099083850277701</v>
       </c>
     </row>
-    <row r="153" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>0.319471</v>
       </c>
@@ -26833,7 +26833,7 @@
         <v>51.774340238150266</v>
       </c>
     </row>
-    <row r="154" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>0.32136100000000001</v>
       </c>
@@ -27006,7 +27006,7 @@
         <v>51.533283552455877</v>
       </c>
     </row>
-    <row r="155" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>0.32514199999999999</v>
       </c>
@@ -27179,7 +27179,7 @@
         <v>51.05710715632096</v>
       </c>
     </row>
-    <row r="156" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>0.32577200000000001</v>
       </c>
@@ -27352,7 +27352,7 @@
         <v>50.978539722792796</v>
       </c>
     </row>
-    <row r="157" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>0.32829199999999997</v>
       </c>
@@ -27525,7 +27525,7 @@
         <v>50.666445934338562</v>
       </c>
     </row>
-    <row r="158" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>0.33144299999999999</v>
       </c>
@@ -27698,7 +27698,7 @@
         <v>50.281031528613148</v>
       </c>
     </row>
-    <row r="159" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>0.33522400000000002</v>
       </c>
@@ -27871,7 +27871,7 @@
         <v>49.825484451336997</v>
       </c>
     </row>
-    <row r="160" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>0.33774399999999999</v>
       </c>
@@ -28044,7 +28044,7 @@
         <v>49.525971951423905</v>
       </c>
     </row>
-    <row r="161" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>0.33900400000000003</v>
       </c>
@@ -28217,7 +28217,7 @@
         <v>49.377425899018625</v>
       </c>
     </row>
-    <row r="162" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>0.33963500000000002</v>
       </c>
@@ -28390,7 +28390,7 @@
         <v>49.303335133696116</v>
       </c>
     </row>
-    <row r="163" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>0.34026499999999998</v>
       </c>
@@ -28563,7 +28563,7 @@
         <v>49.229560483788866</v>
       </c>
     </row>
-    <row r="164" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>0.351607</v>
       </c>
@@ -28736,7 +28736,7 @@
         <v>47.934400156178839</v>
       </c>
     </row>
-    <row r="165" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>0.35853800000000002</v>
       </c>
@@ -28909,7 +28909,7 @@
         <v>47.172471443349217</v>
       </c>
     </row>
-    <row r="166" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>0.36357899999999999</v>
       </c>
@@ -29082,7 +29082,7 @@
         <v>46.631681324745138</v>
       </c>
     </row>
-    <row r="167" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>0.36673</v>
       </c>
@@ -29255,7 +29255,7 @@
         <v>46.299182058456154</v>
       </c>
     </row>
-    <row r="168" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>0.36987999999999999</v>
       </c>
@@ -29428,7 +29428,7 @@
         <v>45.970942413316109</v>
       </c>
     </row>
-    <row r="169" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>0.37870199999999998</v>
       </c>
@@ -29601,7 +29601,7 @@
         <v>45.073077410397403</v>
       </c>
     </row>
-    <row r="170" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>0.379332</v>
       </c>
@@ -29774,7 +29774,7 @@
         <v>45.010134738487118</v>
       </c>
     </row>
-    <row r="171" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>0.38059199999999999</v>
       </c>
@@ -29947,7 +29947,7 @@
         <v>44.884709351017477</v>
       </c>
     </row>
-    <row r="172" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>0.383743</v>
       </c>
@@ -30120,7 +30120,7 @@
         <v>44.573703292878562</v>
       </c>
     </row>
-    <row r="173" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>0.38437300000000002</v>
       </c>
@@ -30293,7 +30293,7 @@
         <v>44.511972500899347</v>
       </c>
     </row>
-    <row r="174" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>0.385633</v>
       </c>
@@ -30466,7 +30466,7 @@
         <v>44.388956869125195</v>
       </c>
     </row>
-    <row r="175" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>0.38689400000000002</v>
       </c>
@@ -30639,7 +30639,7 @@
         <v>44.266435122399692</v>
       </c>
     </row>
-    <row r="176" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>0.38878400000000002</v>
       </c>
@@ -30812,7 +30812,7 @@
         <v>44.083896525433374</v>
       </c>
     </row>
-    <row r="177" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>0.38941399999999998</v>
       </c>
@@ -30985,7 +30985,7 @@
         <v>44.023340881646973</v>
       </c>
     </row>
-    <row r="178" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>0.390044</v>
       </c>
@@ -31158,7 +31158,7 @@
         <v>43.96292959653001</v>
       </c>
     </row>
-    <row r="179" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>0.39130399999999999</v>
       </c>
@@ -31331,7 +31331,7 @@
         <v>43.842537916996839</v>
       </c>
     </row>
-    <row r="180" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>0.391934</v>
       </c>
@@ -31504,7 +31504,7 @@
         <v>43.782556437039155</v>
       </c>
     </row>
-    <row r="181" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>0.392565</v>
       </c>
@@ -31677,7 +31677,7 @@
         <v>43.722622274368234</v>
       </c>
     </row>
-    <row r="182" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>0.39319500000000002</v>
       </c>
@@ -31850,7 +31850,7 @@
         <v>43.662924858184475</v>
       </c>
     </row>
-    <row r="183" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>0.39760600000000001</v>
       </c>
@@ -32023,7 +32023,7 @@
         <v>43.24887165037692</v>
       </c>
     </row>
-    <row r="184" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>0.40264699999999998</v>
       </c>
@@ -32196,7 +32196,7 @@
         <v>42.783923016534132</v>
       </c>
     </row>
-    <row r="185" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>0.403277</v>
       </c>
@@ -32369,7 +32369,7 @@
         <v>42.726421789499547</v>
       </c>
     </row>
-    <row r="186" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>0.41020800000000002</v>
       </c>
@@ -32542,7 +32542,7 @@
         <v>42.10248800445752</v>
       </c>
     </row>
-    <row r="187" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>0.41083799999999998</v>
       </c>
@@ -32715,7 +32715,7 @@
         <v>42.046550705610194</v>
       </c>
     </row>
-    <row r="188" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>0.41272799999999998</v>
       </c>
@@ -32888,7 +32888,7 @@
         <v>41.879500470962839</v>
       </c>
     </row>
-    <row r="189" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>0.41461900000000002</v>
       </c>
@@ -33061,7 +33061,7 @@
         <v>41.713495655174007</v>
       </c>
     </row>
-    <row r="190" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>0.41839900000000002</v>
       </c>
@@ -33234,7 +33234,7 @@
         <v>41.38501239369316</v>
       </c>
     </row>
-    <row r="191" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>0.42154999999999998</v>
       </c>
@@ -33407,7 +33407,7 @@
         <v>41.114546783382707</v>
       </c>
     </row>
-    <row r="192" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>0.42281000000000002</v>
       </c>
@@ -33580,7 +33580,7 @@
         <v>41.007236182676301</v>
       </c>
     </row>
-    <row r="193" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>0.42533100000000001</v>
       </c>
@@ -33753,7 +33753,7 @@
         <v>40.79395408369237</v>
       </c>
     </row>
-    <row r="194" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>0.426591</v>
       </c>
@@ -33926,7 +33926,7 @@
         <v>40.688060532571342</v>
       </c>
     </row>
-    <row r="195" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>0.42911199999999999</v>
       </c>
@@ -34099,7 +34099,7 @@
         <v>40.477583935740036</v>
       </c>
     </row>
-    <row r="196" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>0.431002</v>
       </c>
@@ -34272,7 +34272,7 @@
         <v>40.320996092599437</v>
       </c>
     </row>
-    <row r="197" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>0.43163200000000002</v>
       </c>
@@ -34445,7 +34445,7 @@
         <v>40.269027869006692</v>
       </c>
     </row>
-    <row r="198" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>0.43415199999999998</v>
       </c>
@@ -34618,7 +34618,7 @@
         <v>40.062283118142332</v>
       </c>
     </row>
-    <row r="199" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>0.44108399999999998</v>
       </c>
@@ -34791,7 +34791,7 @@
         <v>39.502713668895346</v>
       </c>
     </row>
-    <row r="200" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>0.443604</v>
       </c>
@@ -34964,7 +34964,7 @@
         <v>39.302544922168188</v>
       </c>
     </row>
-    <row r="201" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>0.44423400000000002</v>
       </c>
@@ -35137,7 +35137,7 @@
         <v>39.25276881987255</v>
       </c>
     </row>
-    <row r="202" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>0.44549499999999997</v>
       </c>
@@ -35310,7 +35310,7 @@
         <v>39.153454813835602</v>
       </c>
     </row>
-    <row r="203" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>0.44612499999999999</v>
       </c>
@@ -35483,7 +35483,7 @@
         <v>39.103994956614123</v>
       </c>
     </row>
-    <row r="204" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>0.44738499999999998</v>
       </c>
@@ -35656,7 +35656,7 @@
         <v>39.005388843147003</v>
       </c>
     </row>
-    <row r="205" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>0.44927499999999998</v>
       </c>
@@ -35829,7 +35829,7 @@
         <v>38.858258428963701</v>
       </c>
     </row>
-    <row r="206" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>0.449905</v>
       </c>
@@ -36002,7 +36002,7 @@
         <v>38.80942123805174</v>
       </c>
     </row>
-    <row r="207" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>0.45053599999999999</v>
       </c>
@@ -36175,7 +36175,7 @@
         <v>38.760609338585532</v>
       </c>
     </row>
-    <row r="208" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>0.45116600000000001</v>
       </c>
@@ -36348,7 +36348,7 @@
         <v>38.711977101157053</v>
       </c>
     </row>
-    <row r="209" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>0.45179599999999998</v>
       </c>
@@ -36521,7 +36521,7 @@
         <v>38.663446747813261</v>
       </c>
     </row>
-    <row r="210" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>0.45620699999999997</v>
       </c>
@@ -36694,7 +36694,7 @@
         <v>38.326482938219428</v>
       </c>
     </row>
-    <row r="211" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>0.46061800000000003</v>
       </c>
@@ -36867,7 +36867,7 @@
         <v>37.994383259864286</v>
       </c>
     </row>
-    <row r="212" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>0.46187800000000001</v>
       </c>
@@ -37040,7 +37040,7 @@
         <v>37.900396755501603</v>
       </c>
     </row>
-    <row r="213" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>0.46313799999999999</v>
       </c>
@@ -37213,7 +37213,7 @@
         <v>37.806795573135176</v>
       </c>
     </row>
-    <row r="214" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>0.46628900000000001</v>
       </c>
@@ -37386,7 +37386,7 @@
         <v>37.574388650401197</v>
       </c>
     </row>
-    <row r="215" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>0.46754899999999999</v>
       </c>
@@ -37559,7 +37559,7 @@
         <v>37.482116829341372</v>
       </c>
     </row>
-    <row r="216" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>0.47006900000000001</v>
       </c>
@@ -37732,7 +37732,7 @@
         <v>37.298693477594043</v>
       </c>
     </row>
-    <row r="217" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>0.47510999999999998</v>
       </c>
@@ -37905,7 +37905,7 @@
         <v>36.936190016122445</v>
       </c>
     </row>
-    <row r="218" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>0.47637099999999999</v>
       </c>
@@ -38078,7 +38078,7 @@
         <v>36.846417293819513</v>
       </c>
     </row>
-    <row r="219" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>0.47700100000000001</v>
       </c>
@@ -38251,7 +38251,7 @@
         <v>36.801700929483573</v>
       </c>
     </row>
-    <row r="220" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>0.47763100000000003</v>
       </c>
@@ -38424,7 +38424,7 @@
         <v>36.757073740224321</v>
       </c>
     </row>
-    <row r="221" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>0.47889100000000001</v>
       </c>
@@ -38597,7 +38597,7 @@
         <v>36.668085760215824</v>
       </c>
     </row>
-    <row r="222" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>0.48330200000000001</v>
       </c>
@@ -38770,7 +38770,7 @@
         <v>36.359326274661299</v>
       </c>
     </row>
-    <row r="223" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>0.48519200000000001</v>
       </c>
@@ -38943,7 +38943,7 @@
         <v>36.228332590226614</v>
       </c>
     </row>
-    <row r="224" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>0.48960300000000001</v>
       </c>
@@ -39116,7 +39116,7 @@
         <v>35.925596235133455</v>
       </c>
     </row>
-    <row r="225" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>0.49338399999999999</v>
       </c>
@@ -39289,7 +39289,7 @@
         <v>35.669369941206845</v>
       </c>
     </row>
-    <row r="226" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>0.49464399999999997</v>
       </c>
@@ -39462,7 +39462,7 @@
         <v>35.584644399715295</v>
       </c>
     </row>
-    <row r="227" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>0.49779499999999999</v>
       </c>
@@ -39635,7 +39635,7 @@
         <v>35.374189817700966</v>
       </c>
     </row>
-    <row r="228" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>0.49968499999999999</v>
       </c>
@@ -39808,7 +39808,7 @@
         <v>35.248925071586605</v>
       </c>
     </row>
-    <row r="229" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>0.50283599999999995</v>
       </c>
@@ -39981,7 +39981,7 @@
         <v>35.04167679113138</v>
       </c>
     </row>
-    <row r="230" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>0.50472600000000001</v>
       </c>
@@ -40154,7 +40154,7 @@
         <v>34.918311970325952</v>
       </c>
     </row>
-    <row r="231" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>0.50598600000000005</v>
       </c>
@@ -40327,7 +40327,7 @@
         <v>34.836458352323774</v>
       </c>
     </row>
-    <row r="232" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>0.50850700000000004</v>
       </c>
@@ -40500,7 +40500,7 @@
         <v>34.67361339874661</v>
       </c>
     </row>
-    <row r="233" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>0.50913699999999995</v>
       </c>
@@ -40673,7 +40673,7 @@
         <v>34.633110071746017</v>
       </c>
     </row>
-    <row r="234" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>0.51102700000000001</v>
       </c>
@@ -40846,7 +40846,7 @@
         <v>34.512056518701684</v>
       </c>
     </row>
-    <row r="235" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>0.51417800000000002</v>
       </c>
@@ -41019,7 +41019,7 @@
         <v>34.31174522341631</v>
       </c>
     </row>
-    <row r="236" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>0.51480800000000004</v>
       </c>
@@ -41192,7 +41192,7 @@
         <v>34.271919913859449</v>
       </c>
     </row>
-    <row r="237" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>0.51669799999999999</v>
       </c>
@@ -41365,7 +41365,7 @@
         <v>34.152888368876091</v>
       </c>
     </row>
-    <row r="238" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>0.51858899999999997</v>
       </c>
@@ -41538,7 +41538,7 @@
         <v>34.03445637134616</v>
       </c>
     </row>
-    <row r="239" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>0.51921899999999999</v>
       </c>
@@ -41711,7 +41711,7 @@
         <v>33.995146076495494</v>
       </c>
     </row>
-    <row r="240" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>0.51984900000000001</v>
       </c>
@@ -41884,7 +41884,7 @@
         <v>33.955908476062191</v>
       </c>
     </row>
-    <row r="241" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>0.52110900000000004</v>
       </c>
@@ -42057,7 +42057,7 @@
         <v>33.877650507454618</v>
       </c>
     </row>
-    <row r="242" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>0.52173899999999995</v>
       </c>
@@ -42230,7 +42230,7 @@
         <v>33.838629715920455</v>
       </c>
     </row>
-    <row r="243" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>0.52236899999999997</v>
       </c>
@@ -42403,7 +42403,7 @@
         <v>33.799680772075106</v>
       </c>
     </row>
-    <row r="244" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>0.52551999999999999</v>
       </c>
@@ -42576,7 +42576,7 @@
         <v>33.605945260466406</v>
       </c>
     </row>
-    <row r="245" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>0.52678000000000003</v>
       </c>
@@ -42749,7 +42749,7 @@
         <v>33.528971423534898</v>
       </c>
     </row>
-    <row r="246" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>0.52866999999999997</v>
       </c>
@@ -42922,7 +42922,7 @@
         <v>33.414036618616684</v>
       </c>
     </row>
-    <row r="247" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>0.53119099999999997</v>
       </c>
@@ -43095,7 +43095,7 @@
         <v>33.261703305619726</v>
       </c>
     </row>
-    <row r="248" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>0.55261499999999997</v>
       </c>
@@ -43268,7 +43268,7 @@
         <v>32.01036147639757</v>
       </c>
     </row>
-    <row r="249" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>0.57592900000000002</v>
       </c>
@@ -43441,7 +43441,7 @@
         <v>30.730601312306597</v>
       </c>
     </row>
-    <row r="250" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>0.60491499999999998</v>
       </c>
@@ -43614,7 +43614,7 @@
         <v>29.246686605995954</v>
       </c>
     </row>
-    <row r="251" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>0.608066</v>
       </c>
@@ -43787,7 +43787,7 @@
         <v>29.091998007080086</v>
       </c>
     </row>
-    <row r="252" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>0.61310600000000004</v>
       </c>
@@ -43960,7 +43960,7 @@
         <v>28.84714103155347</v>
       </c>
     </row>
-    <row r="253" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>0.63200999999999996</v>
       </c>
@@ -44133,7 +44133,7 @@
         <v>27.95587752614518</v>
       </c>
     </row>
-    <row r="254" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>0.63894099999999998</v>
       </c>
@@ -44306,7 +44306,7 @@
         <v>27.639413937078452</v>
       </c>
     </row>
-    <row r="255" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>0.64083199999999996</v>
       </c>
@@ -44479,7 +44479,7 @@
         <v>27.553998909969842</v>
       </c>
     </row>
-    <row r="256" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>0.64965300000000004</v>
       </c>
@@ -44652,7 +44652,7 @@
         <v>27.160691073362571</v>
       </c>
     </row>
-    <row r="257" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>0.65154400000000001</v>
       </c>
@@ -44825,7 +44825,7 @@
         <v>27.077458014047686</v>
       </c>
     </row>
-    <row r="258" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>0.65217400000000003</v>
       </c>
@@ -44998,7 +44998,7 @@
         <v>27.049811971127696</v>
       </c>
     </row>
-    <row r="259" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>0.65595499999999995</v>
       </c>
@@ -45171,7 +45171,7 @@
         <v>26.88476316710981</v>
       </c>
     </row>
-    <row r="260" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>0.65658499999999997</v>
       </c>
@@ -45344,7 +45344,7 @@
         <v>26.857406574712648</v>
       </c>
     </row>
-    <row r="261" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>0.66036499999999998</v>
       </c>
@@ -45517,7 +45517,7 @@
         <v>26.694123574833846</v>
       </c>
     </row>
-    <row r="262" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>0.66288599999999998</v>
       </c>
@@ -45690,7 +45690,7 @@
         <v>26.5860342288778</v>
       </c>
     </row>
-    <row r="263" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>0.67485799999999996</v>
       </c>
@@ -45863,7 +45863,7 @@
         <v>26.081368689252372</v>
       </c>
     </row>
-    <row r="264" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>0.67674900000000004</v>
       </c>
@@ -46036,7 +46036,7 @@
         <v>26.002935224330614</v>
       </c>
     </row>
-    <row r="265" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>0.68115899999999996</v>
       </c>
@@ -46209,7 +46209,7 @@
         <v>25.821346668875066</v>
       </c>
     </row>
-    <row r="266" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>0.68242000000000003</v>
       </c>
@@ -46382,7 +46382,7 @@
         <v>25.769761192493689</v>
       </c>
     </row>
-    <row r="267" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>0.68367999999999995</v>
       </c>
@@ -46555,7 +46555,7 @@
         <v>25.718365566704861</v>
       </c>
     </row>
-    <row r="268" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>0.68872100000000003</v>
       </c>
@@ -46728,7 +46728,7 @@
         <v>25.514218112500942</v>
       </c>
     </row>
-    <row r="269" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>0.69061099999999997</v>
       </c>
@@ -46901,7 +46901,7 @@
         <v>25.438280686793647</v>
       </c>
     </row>
-    <row r="270" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>0.69187100000000001</v>
       </c>
@@ -47074,7 +47074,7 @@
         <v>25.387836553100726</v>
       </c>
     </row>
-    <row r="271" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>0.69376199999999999</v>
       </c>
@@ -47247,7 +47247,7 @@
         <v>25.31240014069666</v>
       </c>
     </row>
-    <row r="272" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>0.69439200000000001</v>
       </c>
@@ -47420,7 +47420,7 @@
         <v>25.287339563899863</v>
       </c>
     </row>
-    <row r="273" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>0.69502200000000003</v>
       </c>
@@ -47593,7 +47593,7 @@
         <v>25.262314636981941</v>
       </c>
     </row>
-    <row r="274" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>0.69880299999999995</v>
       </c>
@@ -47766,7 +47766,7 @@
         <v>25.112869895969574</v>
       </c>
     </row>
-    <row r="275" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>0.70762400000000003</v>
       </c>
@@ -47939,7 +47939,7 @@
         <v>24.769103785394279</v>
       </c>
     </row>
-    <row r="276" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>0.70888499999999999</v>
       </c>
@@ -48112,7 +48112,7 @@
         <v>24.720510632564036</v>
       </c>
     </row>
-    <row r="277" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>0.71077500000000005</v>
       </c>
@@ -48285,7 +48285,7 @@
         <v>24.647932607079092</v>
       </c>
     </row>
-    <row r="278" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>0.71266499999999999</v>
       </c>
@@ -48458,7 +48458,7 @@
         <v>24.575657379664463</v>
       </c>
     </row>
-    <row r="279" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>0.71329600000000004</v>
       </c>
@@ -48631,7 +48631,7 @@
         <v>24.551594472722982</v>
       </c>
     </row>
-    <row r="280" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>0.71581600000000001</v>
       </c>
@@ -48804,7 +48804,7 @@
         <v>24.455828251724604</v>
       </c>
     </row>
-    <row r="281" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>0.71833599999999997</v>
       </c>
@@ -48977,7 +48977,7 @@
         <v>24.360590964501434</v>
       </c>
     </row>
-    <row r="282" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>0.72337700000000005</v>
       </c>
@@ -49150,7 +49150,7 @@
         <v>24.17164755745889</v>
       </c>
     </row>
-    <row r="283" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>0.724638</v>
       </c>
@@ -49323,7 +49323,7 @@
         <v>24.124707410183184</v>
       </c>
     </row>
-    <row r="284" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>0.72904899999999995</v>
       </c>
@@ -49496,7 +49496,7 @@
         <v>23.961516988572136</v>
       </c>
     </row>
-    <row r="285" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>0.72967899999999997</v>
       </c>
@@ -49669,7 +49669,7 @@
         <v>23.938336267903622</v>
       </c>
     </row>
-    <row r="286" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>0.73787000000000003</v>
       </c>
@@ -49842,7 +49842,7 @@
         <v>23.639794384872104</v>
       </c>
     </row>
-    <row r="287" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>0.73850000000000005</v>
       </c>
@@ -50015,7 +50015,7 @@
         <v>23.617048864600577</v>
       </c>
     </row>
-    <row r="288" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>0.739761</v>
       </c>
@@ -50188,7 +50188,7 @@
         <v>23.571613538348942</v>
       </c>
     </row>
-    <row r="289" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>0.74039100000000002</v>
       </c>
@@ -50361,7 +50361,7 @@
         <v>23.548959633717978</v>
       </c>
     </row>
-    <row r="290" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>0.74228099999999997</v>
       </c>
@@ -50534,7 +50534,7 @@
         <v>23.481180020116994</v>
       </c>
     </row>
-    <row r="291" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>0.74354100000000001</v>
       </c>
@@ -50707,7 +50707,7 @@
         <v>23.436144719740959</v>
       </c>
     </row>
-    <row r="292" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>0.74480199999999996</v>
       </c>
@@ -50880,7 +50880,7 @@
         <v>23.391194111806229</v>
       </c>
     </row>
-    <row r="293" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>0.746062</v>
       </c>
@@ -51053,7 +51053,7 @@
         <v>23.346398982611476</v>
       </c>
     </row>
-    <row r="294" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>0.74732200000000004</v>
       </c>
@@ -51226,7 +51226,7 @@
         <v>23.301723133664566</v>
       </c>
     </row>
-    <row r="295" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>0.74795199999999995</v>
       </c>
@@ -51399,7 +51399,7 @@
         <v>23.279429782568812</v>
       </c>
     </row>
-    <row r="296" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>0.75803399999999999</v>
       </c>
@@ -51572,7 +51572,7 @@
         <v>22.926655053058987</v>
       </c>
     </row>
-    <row r="297" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>0.76181500000000002</v>
       </c>
@@ -51745,7 +51745,7 @@
         <v>22.796261413803784</v>
       </c>
     </row>
-    <row r="298" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>0.76307499999999995</v>
       </c>
@@ -51918,7 +51918,7 @@
         <v>22.753035468585566</v>
       </c>
     </row>
-    <row r="299" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>0.76559500000000003</v>
       </c>
@@ -52091,7 +52091,7 @@
         <v>22.666921365273467</v>
       </c>
     </row>
-    <row r="300" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>0.76874600000000004</v>
       </c>
@@ -52264,7 +52264,7 @@
         <v>22.559873463599175</v>
       </c>
     </row>
-    <row r="301" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>0.77252699999999996</v>
       </c>
@@ -52437,7 +52437,7 @@
         <v>22.432335801327618</v>
       </c>
     </row>
-    <row r="302" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>0.77882799999999996</v>
       </c>
@@ -52610,7 +52610,7 @@
         <v>22.221977082826768</v>
       </c>
     </row>
-    <row r="303" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>0.78827999999999998</v>
       </c>
@@ -52783,7 +52783,7 @@
         <v>21.911429642172379</v>
       </c>
     </row>
-    <row r="304" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>0.79079999999999995</v>
       </c>
@@ -52956,7 +52956,7 @@
         <v>21.829629495385184</v>
       </c>
     </row>
-    <row r="305" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>0.79269100000000003</v>
       </c>
@@ -53129,7 +53129,7 @@
         <v>21.768517994696694</v>
       </c>
     </row>
-    <row r="306" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>0.795211</v>
       </c>
@@ -53302,7 +53302,7 @@
         <v>21.687437686659699</v>
       </c>
     </row>
-    <row r="307" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>0.80025199999999996</v>
       </c>
@@ -53475,7 +53475,7 @@
         <v>21.526462373322758</v>
       </c>
     </row>
-    <row r="308" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>0.804033</v>
       </c>
@@ -53648,7 +53648,7 @@
         <v>21.406775792328588</v>
       </c>
     </row>
-    <row r="309" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>0.807813</v>
       </c>
@@ -53821,7 +53821,7 @@
         <v>21.288011236611332</v>
       </c>
     </row>
-    <row r="310" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>0.81096400000000002</v>
       </c>
@@ -53994,7 +53994,7 @@
         <v>21.189682198632731</v>
       </c>
     </row>
-    <row r="311" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>0.81600499999999998</v>
       </c>
@@ -54167,7 +54167,7 @@
         <v>21.033631088278653</v>
       </c>
     </row>
-    <row r="312" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>0.81789500000000004</v>
       </c>
@@ -54340,7 +54340,7 @@
         <v>20.975518033026191</v>
       </c>
     </row>
-    <row r="313" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>0.82230599999999998</v>
       </c>
@@ -54513,7 +54513,7 @@
         <v>20.840717506374823</v>
       </c>
     </row>
-    <row r="314" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>0.82419699999999996</v>
       </c>
@@ -54686,7 +54686,7 @@
         <v>20.783280176279376</v>
       </c>
     </row>
-    <row r="315" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>0.82860699999999998</v>
       </c>
@@ -54859,7 +54859,7 @@
         <v>20.650141992914683</v>
       </c>
     </row>
-    <row r="316" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>0.83427899999999999</v>
       </c>
@@ -55032,7 +55032,7 @@
         <v>20.480553623350936</v>
       </c>
     </row>
-    <row r="317" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>0.83490900000000001</v>
       </c>
@@ -55205,7 +55205,7 @@
         <v>20.46183041676867</v>
       </c>
     </row>
-    <row r="318" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>0.83868900000000002</v>
       </c>
@@ -55378,7 +55378,7 @@
         <v>20.349962093173403</v>
       </c>
     </row>
-    <row r="319" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>0.84057999999999999</v>
       </c>
@@ -55551,7 +55551,7 @@
         <v>20.294299376211832</v>
       </c>
     </row>
-    <row r="320" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>0.84436</v>
       </c>
@@ -55724,7 +55724,7 @@
         <v>20.183628919664869</v>
       </c>
     </row>
-    <row r="321" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>0.84562099999999996</v>
       </c>
@@ -55897,7 +55897,7 @@
         <v>20.1468850412462</v>
       </c>
     </row>
-    <row r="322" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>0.85696300000000003</v>
       </c>
@@ -56070,7 +56070,7 @@
         <v>19.82027827989662</v>
       </c>
     </row>
-    <row r="323" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>0.85822299999999996</v>
       </c>
@@ -56243,7 +56243,7 @@
         <v>19.784420644389435</v>
       </c>
     </row>
-    <row r="324" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>0.86515399999999998</v>
       </c>
@@ -56416,7 +56416,7 @@
         <v>19.588667990903886</v>
       </c>
     </row>
-    <row r="325" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>0.86767499999999997</v>
       </c>
@@ -56589,7 +56589,7 @@
         <v>19.518087292166044</v>
       </c>
     </row>
-    <row r="326" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>0.86893500000000001</v>
       </c>
@@ -56762,7 +56762,7 @@
         <v>19.482933624730549</v>
       </c>
     </row>
-    <row r="327" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>0.86956500000000003</v>
       </c>
@@ -56935,7 +56935,7 @@
         <v>19.465387322943378</v>
       </c>
     </row>
-    <row r="328" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>0.87082499999999996</v>
       </c>
@@ -57108,7 +57108,7 @@
         <v>19.430355597461975</v>
       </c>
     </row>
-    <row r="329" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>0.87145600000000001</v>
       </c>
@@ -57281,7 +57281,7 @@
         <v>19.412842361042884</v>
       </c>
     </row>
-    <row r="330" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>0.87208600000000003</v>
       </c>
@@ -57454,7 +57454,7 @@
         <v>19.395377089491248</v>
       </c>
     </row>
-    <row r="331" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>0.87397599999999998</v>
       </c>
@@ -57627,7 +57627,7 @@
         <v>19.343102071985193</v>
       </c>
     </row>
-    <row r="332" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>0.880907</v>
       </c>
@@ -57800,7 +57800,7 @@
         <v>19.152935969395976</v>
       </c>
     </row>
-    <row r="333" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>0.88279799999999997</v>
       </c>
@@ -57973,7 +57973,7 @@
         <v>19.101467535211164</v>
       </c>
     </row>
-    <row r="334" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>0.88405800000000001</v>
       </c>
@@ -58146,7 +58146,7 @@
         <v>19.067271209176454</v>
       </c>
     </row>
-    <row r="335" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>0.88594799999999996</v>
       </c>
@@ -58319,7 +58319,7 @@
         <v>19.016122698307406</v>
       </c>
     </row>
-    <row r="336" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>0.88909899999999997</v>
       </c>
@@ -58492,7 +58492,7 @@
         <v>18.931235268351308</v>
       </c>
     </row>
-    <row r="337" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>0.89161900000000005</v>
       </c>
@@ -58665,7 +58665,7 @@
         <v>18.863692705039561</v>
       </c>
     </row>
-    <row r="338" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>0.89224999999999999</v>
       </c>
@@ -58838,7 +58838,7 @@
         <v>18.846828090102782</v>
       </c>
     </row>
-    <row r="339" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>0.89729000000000003</v>
       </c>
@@ -59011,7 +59011,7 @@
         <v>18.712807236074354</v>
       </c>
     </row>
-    <row r="340" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>0.89855099999999999</v>
       </c>
@@ -59184,7 +59184,7 @@
         <v>18.679463858949752</v>
       </c>
     </row>
-    <row r="341" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>0.89918100000000001</v>
       </c>
@@ -59357,7 +59357,7 @@
         <v>18.662833460049995</v>
       </c>
     </row>
-    <row r="342" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>0.90422199999999997</v>
       </c>
@@ -59530,7 +59530,7 @@
         <v>18.530433060368189</v>
       </c>
     </row>
-    <row r="343" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>0.90548200000000001</v>
       </c>
@@ -59703,7 +59703,7 @@
         <v>18.497524172514559</v>
       </c>
     </row>
-    <row r="344" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>0.90611200000000003</v>
       </c>
@@ -59876,7 +59876,7 @@
         <v>18.481097242436626</v>
       </c>
     </row>
-    <row r="345" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>0.90674200000000005</v>
       </c>
@@ -60049,7 +60049,7 @@
         <v>18.46468861193712</v>
       </c>
     </row>
-    <row r="346" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>0.90926300000000004</v>
       </c>
@@ -60222,7 +60222,7 @@
         <v>18.399210528667972</v>
       </c>
     </row>
-    <row r="347" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>0.91115299999999999</v>
       </c>
@@ -60395,7 +60395,7 @@
         <v>18.350312067083053</v>
       </c>
     </row>
-    <row r="348" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>0.91304300000000005</v>
       </c>
@@ -60568,7 +60568,7 @@
         <v>18.301576006708643</v>
       </c>
     </row>
-    <row r="349" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>0.91871499999999995</v>
       </c>
@@ -60741,7 +60741,7 @@
         <v>18.156282791780121</v>
       </c>
     </row>
-    <row r="350" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>0.92123500000000003</v>
       </c>
@@ -60914,7 +60914,7 @@
         <v>18.092191696804804</v>
       </c>
     </row>
-    <row r="351" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>0.92438600000000004</v>
       </c>
@@ -61087,7 +61087,7 @@
         <v>18.012447213276396</v>
       </c>
     </row>
-    <row r="352" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>0.92501599999999995</v>
       </c>
@@ -61260,7 +61260,7 @@
         <v>17.996555705700374</v>
       </c>
     </row>
-    <row r="353" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>0.92564599999999997</v>
       </c>
@@ -61433,7 +61433,7 @@
         <v>17.980681565870995</v>
       </c>
     </row>
-    <row r="354" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>0.92816600000000005</v>
       </c>
@@ -61606,7 +61606,7 @@
         <v>17.917358086578531</v>
       </c>
     </row>
-    <row r="355" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>0.93131699999999995</v>
       </c>
@@ -61779,7 +61779,7 @@
         <v>17.838566004093614</v>
       </c>
     </row>
-    <row r="356" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>0.93257699999999999</v>
       </c>
@@ -61952,7 +61952,7 @@
         <v>17.807178907287536</v>
       </c>
     </row>
-    <row r="357" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>0.94013899999999995</v>
       </c>
@@ -62125,7 +62125,7 @@
         <v>17.62022821408749</v>
       </c>
     </row>
-    <row r="358" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>0.94328900000000004</v>
       </c>
@@ -62298,7 +62298,7 @@
         <v>17.543064071594685</v>
       </c>
     </row>
-    <row r="359" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>0.94518000000000002</v>
       </c>
@@ -62471,7 +62471,7 @@
         <v>17.496939791078184</v>
       </c>
     </row>
-    <row r="360" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>0.94581000000000004</v>
       </c>
@@ -62644,7 +62644,7 @@
         <v>17.481606099503985</v>
       </c>
     </row>
-    <row r="361" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>0.94643999999999995</v>
       </c>
@@ -62817,7 +62817,7 @@
         <v>17.466288824101142</v>
       </c>
     </row>
-    <row r="362" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>0.94706999999999997</v>
       </c>
@@ -62990,7 +62990,7 @@
         <v>17.450987937165465</v>
       </c>
     </row>
-    <row r="363" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>0.94769999999999999</v>
       </c>
@@ -63163,7 +63163,7 @@
         <v>17.435703411056743</v>
       </c>
     </row>
-    <row r="364" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>0.95022099999999998</v>
       </c>
@@ -63336,7 +63336,7 @@
         <v>17.374704219507251</v>
       </c>
     </row>
-    <row r="365" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>0.950851</v>
       </c>
@@ -63509,7 +63509,7 @@
         <v>17.359501110885255</v>
       </c>
     </row>
-    <row r="366" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>0.95211100000000004</v>
       </c>
@@ -63682,7 +63682,7 @@
         <v>17.329143455268571</v>
       </c>
     </row>
-    <row r="367" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>0.95337099999999997</v>
       </c>
@@ -63855,7 +63855,7 @@
         <v>17.298850367482828</v>
       </c>
     </row>
-    <row r="368" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>0.95400099999999999</v>
       </c>
@@ -64028,7 +64028,7 @@
         <v>17.283727968883099</v>
       </c>
     </row>
-    <row r="369" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>0.95463100000000001</v>
       </c>
@@ -64201,7 +64201,7 @@
         <v>17.268621631193035</v>
       </c>
     </row>
-    <row r="370" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>0.95652199999999998</v>
       </c>
@@ -64374,7 +64374,7 @@
         <v>17.223374825617384</v>
       </c>
     </row>
-    <row r="371" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>0.95904199999999995</v>
       </c>
@@ -64547,7 +64547,7 @@
         <v>17.163300933607736</v>
       </c>
     </row>
-    <row r="372" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>0.96030199999999999</v>
       </c>
@@ -64720,7 +64720,7 @@
         <v>17.133359178562941</v>
       </c>
     </row>
-    <row r="373" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>0.96408300000000002</v>
       </c>
@@ -64893,7 +64893,7 @@
         <v>17.043888560168043</v>
       </c>
     </row>
-    <row r="374" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>0.96849399999999997</v>
       </c>
@@ -65066,7 +65066,7 @@
         <v>16.940221592128118</v>
       </c>
     </row>
-    <row r="375" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>0.96912399999999999</v>
       </c>
@@ -65239,7 +65239,7 @@
         <v>16.92547743080862</v>
       </c>
     </row>
-    <row r="376" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>0.97038400000000002</v>
       </c>
@@ -65412,7 +65412,7 @@
         <v>16.896035379117983</v>
       </c>
     </row>
-    <row r="377" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>0.97101400000000004</v>
       </c>
@@ -65585,7 +65585,7 @@
         <v>16.88133743788962</v>
       </c>
     </row>
-    <row r="378" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>0.97164499999999998</v>
       </c>
@@ -65758,7 +65758,7 @@
         <v>16.866631559098884</v>
       </c>
     </row>
-    <row r="379" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>0.972275</v>
       </c>
@@ -65931,7 +65931,7 @@
         <v>16.85196432877008</v>
       </c>
     </row>
-    <row r="380" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>0.97290500000000002</v>
       </c>
@@ -66104,7 +66104,7 @@
         <v>16.837312403822594</v>
       </c>
     </row>
-    <row r="381" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>0.97353500000000004</v>
       </c>
@@ -66277,7 +66277,7 @@
         <v>16.822675759084753</v>
       </c>
     </row>
-    <row r="382" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>0.97479499999999997</v>
       </c>
@@ -66450,7 +66450,7 @@
         <v>16.793448209834175</v>
       </c>
     </row>
-    <row r="383" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>0.97605500000000001</v>
       </c>
@@ -66623,7 +66623,7 @@
         <v>16.764281480774429</v>
       </c>
     </row>
-    <row r="384" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>0.97668600000000005</v>
       </c>
@@ -66796,7 +66796,7 @@
         <v>16.749697761425367</v>
       </c>
     </row>
-    <row r="385" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>0.97983600000000004</v>
       </c>
@@ -66969,7 +66969,7 @@
         <v>16.677121245274989</v>
       </c>
     </row>
-    <row r="386" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>0.98046599999999995</v>
       </c>
@@ -67142,7 +67142,7 @@
         <v>16.662651061392253</v>
       </c>
     </row>
-    <row r="387" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>0.98109599999999997</v>
       </c>
@@ -67315,7 +67315,7 @@
         <v>16.648195859990778</v>
       </c>
     </row>
-    <row r="388" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>0.98235700000000004</v>
       </c>
@@ -67488,7 +67488,7 @@
         <v>16.619307421435295</v>
       </c>
     </row>
-    <row r="389" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>0.98361699999999996</v>
       </c>
@@ -67661,7 +67661,7 @@
         <v>16.590501552850725</v>
       </c>
     </row>
-    <row r="390" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>0.984877</v>
       </c>
@@ -67834,7 +67834,7 @@
         <v>16.561755127308558</v>
       </c>
     </row>
-    <row r="391" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>0.98550700000000002</v>
       </c>
@@ -68007,7 +68007,7 @@
         <v>16.547404145270427</v>
       </c>
     </row>
-    <row r="392" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>0.98613700000000004</v>
       </c>
@@ -68180,7 +68180,7 @@
         <v>16.533067951610825</v>
       </c>
     </row>
-    <row r="393" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>0.98676699999999995</v>
       </c>
@@ -68353,7 +68353,7 @@
         <v>16.518746522314068</v>
       </c>
     </row>
-    <row r="394" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>0.987398</v>
       </c>
@@ -68526,7 +68526,7 @@
         <v>16.504417136092442</v>
       </c>
     </row>
-    <row r="395" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>0.98802800000000002</v>
       </c>
@@ -68699,7 +68699,7 @@
         <v>16.490125187028092</v>
       </c>
     </row>
-    <row r="396" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>0.98928799999999995</v>
       </c>
@@ -68872,7 +68872,7 @@
         <v>16.461585342888547</v>
       </c>
     </row>
-    <row r="397" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>0.98991799999999996</v>
       </c>
@@ -69045,7 +69045,7 @@
         <v>16.447337400259826</v>
       </c>
     </row>
-    <row r="398" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>0.99054799999999998</v>
       </c>
@@ -69218,7 +69218,7 @@
         <v>16.433104078977195</v>
       </c>
     </row>
-    <row r="399" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>0.991178</v>
       </c>
@@ -69391,7 +69391,7 @@
         <v>16.418885355395311</v>
       </c>
     </row>
-    <row r="400" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>0.99180800000000002</v>
       </c>
@@ -69564,7 +69564,7 @@
         <v>16.404681205921101</v>
       </c>
     </row>
-    <row r="401" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>0.99243899999999996</v>
       </c>
@@ -69737,7 +69737,7 @@
         <v>16.390469095394735</v>
       </c>
     </row>
-    <row r="402" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>0.99306899999999998</v>
       </c>
@@ -69910,7 +69910,7 @@
         <v>16.376294046605381</v>
       </c>
     </row>
-    <row r="403" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>0.993699</v>
       </c>
@@ -70083,7 +70083,7 @@
         <v>16.362133501419684</v>
       </c>
     </row>
-    <row r="404" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>0.99432900000000002</v>
       </c>
